--- a/src/utils/seed/planilha-dados3.xlsx
+++ b/src/utils/seed/planilha-dados3.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Plan3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$O$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="480">
   <si>
     <t xml:space="preserve">Grande Grupo</t>
   </si>
@@ -71,6 +71,9 @@
     <t xml:space="preserve">Foto</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACeuUVRbAKuiFQ1f_Rdl0BNa/IMAGENS-PEIXES/Acestrorhynchus%20falcatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes com escamas</t>
   </si>
   <si>
@@ -95,37 +98,46 @@
     <t xml:space="preserve">Não</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHF0CqNrSimEp_BtrrIP_ka/IMAGENS-PEIXES/Acestrorhynchus%20microlepis.JPG?raw=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acestrorhynchus microlepis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHwXZoWko3om7Oo9wggbbha/IMAGENS-PEIXES/Ageneiosus%20inermis.JPG?raw=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixes de couro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagres médios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca-larga, Fidalgo, Mandubé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ageneiosus inermis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auchenipteridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rios com água corrente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sim</t>
   </si>
   <si>
-    <t xml:space="preserve">Acestrorhynchus microlepis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixes de couro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagres médios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boca-larga, Fidalgo, Mandubé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageneiosus inermis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auchenipteridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rios com água corrente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAJL7U-xOUtuDbJauMW6ZJZa/IMAGENS-PEIXES/Ageneiosus%20ucayalensis.JPG?raw=1</t>
   </si>
   <si>
     <t xml:space="preserve">Fidalgo, Mandubé-de-ferrão</t>
@@ -152,6 +164,9 @@
     <t xml:space="preserve">26.8</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAIw7UAB1abn6rnlIJFQtUEa/IMAGENS-PEIXES/Aguarunichthys%20tocantinsensis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandís</t>
   </si>
   <si>
@@ -179,6 +194,9 @@
     <t xml:space="preserve">Sim. Categoria Vulnerável.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKeQkaCqORp82Xpulp-TIJa/IMAGENS-PEIXES/Anostomoides%20laticeps.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piaus</t>
   </si>
   <si>
@@ -194,6 +212,9 @@
     <t xml:space="preserve">Material vegetal</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAALWBpxgL5ZJXm2AVmCryg2a/IMAGENS-PEIXES/Apteronotus%20camposdapazi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outros</t>
   </si>
   <si>
@@ -212,6 +233,9 @@
     <t xml:space="preserve">Lagoas e lagos de água parada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACka_hUaKbde4E4xBHACNIka/IMAGENS-PEIXES/Arapaima%20gigas.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes grandes</t>
   </si>
   <si>
@@ -224,6 +248,9 @@
     <t xml:space="preserve">Arapaimidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0DneioOqyIlFnVhBuBrIma/IMAGENS-PEIXES/Astronotus%20ocellatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carás, Marianas e Jacundás</t>
   </si>
   <si>
@@ -245,6 +272,9 @@
     <t xml:space="preserve">1.6</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAARmcMOm6sm8-Acgl-IGfs7a/IMAGENS-PEIXES/Astyanax%20bimaculatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarís e piabas</t>
   </si>
   <si>
@@ -284,6 +314,9 @@
     <t xml:space="preserve">17.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADonhaaofeK5X8Kae3TtmXea/IMAGENS-PEIXES/Auchenipterus%20nuchalis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bagres pequenos</t>
   </si>
   <si>
@@ -293,6 +326,9 @@
     <t xml:space="preserve">Auchenipterus nuchalis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABLDIAcoryZmuZ1yNCkh_bca/IMAGENS-PEIXES/Baryancistrus%20longipinnis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cascudos</t>
   </si>
   <si>
@@ -317,12 +353,18 @@
     <t xml:space="preserve">Sim. Categoria Criticamente Ameaçada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0GFEUZo6KUt88cpBB-Mt6a/IMAGENS-PEIXES/Baryancistrus%20niveatus.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baryancistrus niveatus</t>
   </si>
   <si>
     <t xml:space="preserve">0.52</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACtwxUVybx_x1SG4vrkhaMPa/IMAGENS-PEIXES/Boulengerella%20cuvieri.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bicudas</t>
   </si>
   <si>
@@ -335,12 +377,18 @@
     <t xml:space="preserve">Ctenoluciidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbp0j8KOAe-0Dcx77Dl8qXa/IMAGENS-PEIXES/Boulengerella%20maculata.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boulengerella maculata</t>
   </si>
   <si>
     <t xml:space="preserve">31.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABxtnRUBNRs-HsFVLiNU4l5a/IMAGENS-PEIXES/Brachyplatystoma%20filamentosum.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grandes bagres</t>
   </si>
   <si>
@@ -350,6 +398,9 @@
     <t xml:space="preserve">Brachiplatystoma filamentosum</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRINRZIMszHYmg8NyAsYz8a/IMAGENS-PEIXES/Brycon%20falcatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piabanha, Matrinxã e Voadores</t>
   </si>
   <si>
@@ -362,6 +413,9 @@
     <t xml:space="preserve">Bryconidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAPSlNPXSQ30fITaf8vx1JXa/IMAGENS-PEIXES/Brycon%20gouldingi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piabanha, Matrinxã</t>
   </si>
   <si>
@@ -374,9 +428,15 @@
     <t xml:space="preserve">Sim. Categoria Ameaçada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC071duLSb0-_L2O2-eUT3Ca/IMAGENS-PEIXES/Brycon%20nattereri.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brycon nattereri</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD-u046FFBIrJz1zPxAkqQpa/IMAGENS-PEIXES/Brycon%20pesu.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piaba-beiradeira</t>
   </si>
   <si>
@@ -386,18 +446,27 @@
     <t xml:space="preserve">Peixes e insetos</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABynjb7Q9NVMqxB15cfyAkGa/IMAGENS-PEIXES/Brycon%20polylepis.jpeg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brycon polylepis</t>
   </si>
   <si>
     <t xml:space="preserve">22.4</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABQGtj9BtLvX47BWQhfyJLIa/IMAGENS-PEIXES/Bryconops%20alburnoides.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piquirão</t>
   </si>
   <si>
     <t xml:space="preserve">Bryconops alburnoides</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADoR_ce3yrPzy_32z5R6hH3a/IMAGENS-PEIXES/Caenotropus%20labyrinthicus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durinho, Cabeça-dura</t>
   </si>
   <si>
@@ -434,6 +503,9 @@
     <t xml:space="preserve">27.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB4tOHEICbJt1GhIL7rYqbOa/IMAGENS-PEIXES/Chalceus%20epakros.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rabo-vermelho</t>
   </si>
   <si>
@@ -449,6 +521,9 @@
     <t xml:space="preserve">0.07</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAc7NuWRD83n2qJk41k5nUFa/IMAGENS-PEIXES/Cichla%20kelberi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tucunarés</t>
   </si>
   <si>
@@ -464,6 +539,9 @@
     <t xml:space="preserve">4.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADmlRY87ElsoG_zi8MlNEXna/IMAGENS-PEIXES/Cichla%20piquiti.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tucunaré-azul</t>
   </si>
   <si>
@@ -473,6 +551,9 @@
     <t xml:space="preserve">1.8</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADh0XjKYaVO0pwM15bArc7Na/IMAGENS-PEIXES/Cichlasoma%20araguaiense.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará, Caroço-de-manga</t>
   </si>
   <si>
@@ -482,6 +563,9 @@
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACP1SsUstm2e5RiAhp7j2SJa/IMAGENS-PEIXES/Colomesus%20tocantinensis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baiacu</t>
   </si>
   <si>
@@ -509,12 +593,18 @@
     <t xml:space="preserve">Crenicichla reticulata</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA1Q0VNXY0SRw7Q_7PtT2sUa/IMAGENS-PEIXES/Crenicichla%20sp.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mariana, Jacundá-açú</t>
   </si>
   <si>
     <t xml:space="preserve">Crenicichla sp</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACWNgC0aTPdqvBk5SXzuhDEa/IMAGENS-PEIXES/Curimata%20sp.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papa-terras e Curimatás</t>
   </si>
   <si>
@@ -542,6 +632,9 @@
     <t xml:space="preserve">0.49</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAUA1GJECppGC6HINIlA3Ha/IMAGENS-PEIXES/Electrophorus%20electricus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes elétricos</t>
   </si>
   <si>
@@ -554,6 +647,9 @@
     <t xml:space="preserve">Gymnotidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACkyGY3CEXx-4CIhmTQAotAa/IMAGENS-PEIXES/Exodon%20paradoxus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miguelinho</t>
   </si>
   <si>
@@ -563,12 +659,18 @@
     <t xml:space="preserve">7.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA55G4HJRbTddiae2B7XSXaa/IMAGENS-PEIXES/Geophagus%20aff.%20altifrons.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corró, Acará-bicudo</t>
   </si>
   <si>
     <t xml:space="preserve">Geophagus aff. altifrons</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAtOK5Ptc3uYFHsuYqgYvHBa/IMAGENS-PEIXES/Gymnotus%20carapo.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuvira</t>
   </si>
   <si>
@@ -578,6 +680,9 @@
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhfEEr6AJJYDAe5n5UFqOTa/IMAGENS-PEIXES/Hassar%20wilderi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-serra</t>
   </si>
   <si>
@@ -590,6 +695,9 @@
     <t xml:space="preserve">Rios de água turva.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAlvks2c4jjlXtg5Ou-dx2Sa/IMAGENS-PEIXES/Hemiodus%20gracilis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-rabo-vermelho</t>
   </si>
   <si>
@@ -602,24 +710,36 @@
     <t xml:space="preserve">Onívoro</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABw58Df5JydE9Uj2kiFAiPpa/IMAGENS-PEIXES/Hemiodus%20microlepis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-escama-fina</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus microlepis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAzELcO5juwRnU3EktUUAEa/IMAGENS-PEIXES/Hemiodus%20ternetzi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-vermelho</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus ternetzi</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9qK2DiaWrpZaU8ZUS5_KTa/IMAGENS-PEIXES/Hemiodus%20unimaculatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-escama-grossa</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus unimaculatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAl6cy3FbAk4WYhiiffYtxwa/IMAGENS-PEIXES/Hemisorubim%20platyrhinchus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeripoca, Jurupoca</t>
   </si>
   <si>
@@ -629,6 +749,9 @@
     <t xml:space="preserve">2.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABNXyYb9vofSrUWUr5KLibIa/IMAGENS-PEIXES/Heros%20efasciatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-folha</t>
   </si>
   <si>
@@ -659,12 +782,18 @@
     <t xml:space="preserve">3.8</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABp3CedBUy4OSEl9JxbdGPoa/IMAGENS-PEIXES/Hoplias%20curupira.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trairão</t>
   </si>
   <si>
     <t xml:space="preserve">Hoplias curupira</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhzaYYlF0ydUA8q1dFmq21a/IMAGENS-PEIXES/Hydrolicus%20armatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-larga</t>
   </si>
   <si>
@@ -680,6 +809,9 @@
     <t xml:space="preserve">Hydrolycus tatauaia</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA2w-xCEz8uZiJMHhCMXPAta/IMAGENS-PEIXES/Hypophthalmus%20edentatus.jpeg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mapará</t>
   </si>
   <si>
@@ -695,6 +827,9 @@
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9zYTcEVV1RMxeHGRJSFB_a/IMAGENS-PEIXES/Hypselacara%20temporalis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-roxo</t>
   </si>
   <si>
@@ -707,12 +842,18 @@
     <t xml:space="preserve">Leporacanthicus galaxias</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD62wlUv8p7Up8jfR0-RMJWa/IMAGENS-PEIXES/Leporinus%20affinis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-flamengo</t>
   </si>
   <si>
     <t xml:space="preserve">Leporinus affinis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAcH2ZDtc1xtSkn1z4N7Bv5a/IMAGENS-PEIXES/Leporinus%20friderici.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-comum</t>
   </si>
   <si>
@@ -722,6 +863,9 @@
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADQLMxB8c4nG68-KZ5slotda/IMAGENS-PEIXES/Lycengraulis%20batesi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinha-de-gato, Manjuba</t>
   </si>
   <si>
@@ -731,6 +875,9 @@
     <t xml:space="preserve">Engraulidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKO5i_wq6CdG2vx6XYiChXa/IMAGENS-PEIXES/Megaleporinus%20trifasciatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-cabeça-gorda</t>
   </si>
   <si>
@@ -740,18 +887,27 @@
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB65wsfEZ78mPPTgy82sTIaa/IMAGENS-PEIXES/Megalonema%20platycephalum.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-prata</t>
   </si>
   <si>
     <t xml:space="preserve">Megalonema platycephalum</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAFB12YoMHltIrCKz95J0N6a/IMAGENS-PEIXES/Mesonauta%20festivus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-festivo</t>
   </si>
   <si>
     <t xml:space="preserve">Mesonauta festivus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACol5cuO4afZV7RYqwKX2jsa/IMAGENS-PEIXES/Moenkhausia%20dichroura.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarí-rabo-preto-e-branco</t>
   </si>
   <si>
@@ -773,6 +929,9 @@
     <t xml:space="preserve">Moenkhausia oligolepis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADgaJuypIzxVdydZpjI2jtGa/IMAGENS-PEIXES/Mylesinus%20paucisquamatus.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes redondos</t>
   </si>
   <si>
@@ -794,6 +953,9 @@
     <t xml:space="preserve">Myleus setiger</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABwMrOzi4QxAQa8BICg3RqVa/IMAGENS-PEIXES/Myloplus%20schomburgkii.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pacú-ferrado</t>
   </si>
   <si>
@@ -824,6 +986,9 @@
     <t xml:space="preserve">4.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbBD0hys6_5gabZAipchOZa/IMAGENS-PEIXES/Osteoglossum%20bicirrhosum.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aruanã</t>
   </si>
   <si>
@@ -839,6 +1004,9 @@
     <t xml:space="preserve">Oxydoras niger</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAboGhsclsxzwgQ4Xfv6V21a/IMAGENS-PEIXES/Pachypops%20fourcroi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corvinas</t>
   </si>
   <si>
@@ -851,6 +1019,9 @@
     <t xml:space="preserve">Scianidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAz9zpQHO1XZs3Ue-dzt3aGa/IMAGENS-PEIXES/Paratrygon%20aiereba.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arraias</t>
   </si>
   <si>
@@ -869,6 +1040,9 @@
     <t xml:space="preserve">Endêmica da Amazônia.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAczBg7hoaaSyVKjtZtcKpma/IMAGENS-PEIXES/Pellona%20castelnaeana.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apapá, Sardinhão, Pescada-amarela</t>
   </si>
   <si>
@@ -881,12 +1055,18 @@
     <t xml:space="preserve">7.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0QdXEjfuSPWyQeSoNq8EMa/IMAGENS-PEIXES/Pelona%20flavipinnis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pescada-branca</t>
   </si>
   <si>
     <t xml:space="preserve">Pellona flavipinnis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB2ima_yFRZjCU42YqGXrpYa/IMAGENS-PEIXES/Phractocephalus%20hemioliopterus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pirarara</t>
   </si>
   <si>
@@ -896,6 +1076,9 @@
     <t xml:space="preserve">44.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC5hVnqUSCqy6Bbzm2dvCA7a/IMAGENS-PEIXES/Piaractus%20brachypomus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caranha, Pirapitinga</t>
   </si>
   <si>
@@ -914,6 +1097,9 @@
     <t xml:space="preserve">Heptapteridae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABA_0DUjbptm_Y8-dWAKweYa/IMAGENS-PEIXES/Pimelodella%20gracilis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chorão-de-faixa</t>
   </si>
   <si>
@@ -929,18 +1115,27 @@
     <t xml:space="preserve">Canais de grandes rios.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACv-LWdkjxZsmwMea2Eys__a/IMAGENS-PEIXES/Pimelodus%20blochii.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-amarelo, Mandí-cabeça-de-ferro</t>
   </si>
   <si>
     <t xml:space="preserve">Pimelodus blochii</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACY0k_FbKogxn3ftpT7YRl0a/IMAGENS-PEIXES/Pimelodus%20ornatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-guarú</t>
   </si>
   <si>
     <t xml:space="preserve">Pimelodus ornatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABRojeNV1nQfqy6OzqHXeQ6a/IMAGENS-PEIXES/Pinirampus%20pirinampu.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barbado</t>
   </si>
   <si>
@@ -950,6 +1145,9 @@
     <t xml:space="preserve">7.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADNkXb7GwwzyU0WI_ni5Mqaa/IMAGENS-PEIXES/Plagioscion%20squamosissimus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corvina</t>
   </si>
   <si>
@@ -959,6 +1157,9 @@
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADGvFRM-iIO9acEevnuNroca/IMAGENS-PEIXES/Platydoras%20costatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bacu-rebeca, Cascudo-rebeca, Cascudo listrado</t>
   </si>
   <si>
@@ -980,6 +1181,9 @@
     <t xml:space="preserve">10.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADspctFW-A_QNbE0nUldNeFa/IMAGENS-PEIXES/Potamorrhapis%20guianensis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bicuda-agulha</t>
   </si>
   <si>
@@ -1019,6 +1223,9 @@
     <t xml:space="preserve">14.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABZsUb_VECf65xXyriajtmXa/IMAGENS-PEIXES/Prochilodus%20nigricans.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papa-terra</t>
   </si>
   <si>
@@ -1028,6 +1235,9 @@
     <t xml:space="preserve">Prochilodontidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA3SRIAa6wQcCXALkJrxvnfa/IMAGENS-PEIXES/Psectrogaster%20amazonica.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Branquinha-cascuda</t>
   </si>
   <si>
@@ -1037,6 +1247,9 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACwwSBlnzM1v2ekxEI-FaLra/IMAGENS-PEIXES/Pseudoplatystoma%20fasciatum.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surubim, Cachara, Pintado</t>
   </si>
   <si>
@@ -1055,6 +1268,9 @@
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACaiPp9S0feRUmCdDA_A7Zaa/IMAGENS-PEIXES/Pterygoplichthys%20joselimaianus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cascudos grandes</t>
   </si>
   <si>
@@ -1067,6 +1283,9 @@
     <t xml:space="preserve">39.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABPZ1bQhiMhAJZs1YT0boMZa/IMAGENS-PEIXES/Pygocentrus%20nattereri.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha-vermelha</t>
   </si>
   <si>
@@ -1076,6 +1295,9 @@
     <t xml:space="preserve">3.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADLn_WDDyK6XoRR5WjZIksxa/IMAGENS-PEIXES/Raphiodon%20vulpinus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-facão</t>
   </si>
   <si>
@@ -1085,6 +1307,9 @@
     <t xml:space="preserve">2.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRGuurdw1cxSE-f2xT6B6Ba/IMAGENS-PEIXES/Rhamdia%20quelen.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jundiá, Bagre, Lobó</t>
   </si>
   <si>
@@ -1106,6 +1331,9 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7PhtmbRbGoVHbqFCGziu5a/IMAGENS-PEIXES/Schizodon%20vittatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schizodon vittatus</t>
   </si>
   <si>
@@ -1118,12 +1346,18 @@
     <t xml:space="preserve">2.6</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADbdgzn0LLaaqLU8CtMS_nka/IMAGENS-PEIXES/Serrasalmus%20eigenmanni.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha</t>
   </si>
   <si>
     <t xml:space="preserve">Serrasalmus eigenmanni</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD16Sofr2Ywi_8VYMLZakqKa/IMAGENS-PEIXES/Serrasalmus%20rhombeus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha-preta</t>
   </si>
   <si>
@@ -1133,6 +1367,9 @@
     <t xml:space="preserve">41.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7_U-UcEFS-B3LXey8f1jDa/IMAGENS-PEIXES/Sorubim%20lima.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bico-de-pato, Jurupensém</t>
   </si>
   <si>
@@ -1142,6 +1379,9 @@
     <t xml:space="preserve">54.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA8oKMC9kuMAu1r7EbAUWr-a/IMAGENS-PEIXES/Sorubimichthys%20planiceps.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surubim-chicote, Bargada</t>
   </si>
   <si>
@@ -1163,18 +1403,27 @@
     <t xml:space="preserve">Synbranchidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAClMTqEFS4cN3ZYUG6_pqbTa/IMAGENS-PEIXES/Tetragonopterus%20argenteus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pataquinha</t>
   </si>
   <si>
     <t xml:space="preserve">Tetragonopterus argenteus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABFCXn00hlsWSOmMWfF4Kaea/IMAGENS-PEIXES/Trachelyopterus%20galeatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cangatí, Cachorro-do-padre</t>
   </si>
   <si>
     <t xml:space="preserve">Trachelyopterus galeatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA6WfuKsiegVhKjnd6Pqs_Ja/IMAGENS-PEIXES/Triportheus%20albus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinhas</t>
   </si>
   <si>
@@ -1187,6 +1436,9 @@
     <t xml:space="preserve">25.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABuSkYGBB2lWirYWccINtpqa/IMAGENS-PEIXES/Triportheus%20trifurcatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinha-papuda</t>
   </si>
   <si>
@@ -1194,6 +1446,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACCG9643Nm047hX03iiH1Sya/IMAGENS-PEIXES/Zungaro%20zungaro.JPG?raw=1</t>
   </si>
   <si>
     <t xml:space="preserve">Jaú</t>
@@ -1314,31 +1569,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:S118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="42" sqref="H4:H7 H11:H14 H19 H22 H25 H27 H29:H31 H35:I35 H39:I39 H41 H56 H66 H91:H92 H95 H100 H103 H108:H109 H115:H116 I3:I6 I11:I12 I14 I17 I30:I33 I43 I45:I46 I48:I49 I52 I54:I56 I60 I62 I64 I73 I78:I80 I86:I88 I94 I96:I97 I99 I101:I102 I104 I106:I107 I109 I114:I115 H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="106.62"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,365 +1640,365 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>45</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>37</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>115</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>450</v>
@@ -1751,335 +2007,335 @@
         <v>200</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>96</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>69</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>34</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>88</v>
@@ -2088,83 +2344,83 @@
         <v>6</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>360</v>
@@ -2173,39 +2429,42 @@
         <v>200</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>37</v>
@@ -2214,780 +2473,777 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>37</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>48</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>22</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>250</v>
@@ -2996,250 +3252,253 @@
         <v>20</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>76</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>27</v>
@@ -3248,80 +3507,80 @@
         <v>161</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>27</v>
@@ -3330,985 +3589,970 @@
         <v>259</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>61</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>65</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>89</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O54" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>59</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>45</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O62" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>97</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O68" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>30</v>
@@ -4317,80 +4561,83 @@
         <v>1</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>60</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="S73" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>90</v>
@@ -4399,42 +4646,39 @@
         <v>6</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O74" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>120</v>
@@ -4443,68 +4687,71 @@
         <v>23</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S75" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="O76" s="0" t="s">
-        <v>23</v>
+      <c r="S76" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>80</v>
@@ -4513,174 +4760,174 @@
         <v>14</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S78" s="0" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>135</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S80" s="0" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>88</v>
@@ -4689,203 +4936,200 @@
         <v>25</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O83" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>39</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O85" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>35</v>
@@ -4894,493 +5138,496 @@
         <v>426</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O86" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O87" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O88" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O89" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>80</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O92" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>45</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>35</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>45</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O96" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>19</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O97" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S97" s="0" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>337</v>
+        <v>408</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>338</v>
+        <v>409</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>105</v>
@@ -5389,382 +5636,379 @@
         <v>70</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O98" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>339</v>
+        <v>410</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>70</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S99" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>345</v>
+        <v>417</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O100" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>50</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O101" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S101" s="0" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O102" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S102" s="0" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>354</v>
+        <v>429</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>355</v>
+        <v>430</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="I103" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O103" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>45</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O104" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S104" s="0" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O105" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>54</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S106" s="0" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>35</v>
@@ -5773,294 +6017,288 @@
         <v>394</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O107" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S107" s="0" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="I108" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O108" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S108" s="0" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O109" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S109" s="0" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O110" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O111" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O112" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S112" s="0" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>379</v>
+        <v>460</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O113" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S113" s="0" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>30</v>
@@ -6069,127 +6307,127 @@
         <v>675</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O114" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S114" s="0" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>384</v>
+        <v>467</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O115" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O116" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>170</v>
@@ -6198,40 +6436,34 @@
         <v>50</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O117" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="O118" s="0" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6251,10 +6483,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="42" sqref="H4:H7 H11:H14 H19 H22 H25 H27 H29:H31 H35:I35 H39:I39 H41 H56 H66 H91:H92 H95 H100 H103 H108:H109 H115:H116 I3:I6 I11:I12 I14 I17 I30:I33 I43 I45:I46 I48:I49 I52 I54:I56 I60 I62 I64 I73 I78:I80 I86:I88 I94 I96:I97 I99 I101:I102 I104 I106:I107 I109 I114:I115 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/utils/seed/planilha-dados3.xlsx
+++ b/src/utils/seed/planilha-dados3.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Plan3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$O$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="480">
   <si>
     <t xml:space="preserve">Grande Grupo</t>
   </si>
@@ -95,37 +95,46 @@
     <t xml:space="preserve">Não</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACeuUVRbAKuiFQ1f_Rdl0BNa/IMAGENS-PEIXES/Acestrorhynchus%20falcatus.JPG?raw=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acestrorhynchus microlepis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHF0CqNrSimEp_BtrrIP_ka/IMAGENS-PEIXES/Acestrorhynchus%20microlepis.JPG?raw=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixes de couro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagres médios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca-larga, Fidalgo, Mandubé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ageneiosus inermis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auchenipteridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rios com água corrente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sim</t>
   </si>
   <si>
-    <t xml:space="preserve">Acestrorhynchus microlepis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixes de couro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagres médios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boca-larga, Fidalgo, Mandubé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageneiosus inermis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auchenipteridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rios com água corrente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHwXZoWko3om7Oo9wggbbha/IMAGENS-PEIXES/Ageneiosus%20inermis.JPG?raw=1</t>
   </si>
   <si>
     <t xml:space="preserve">Fidalgo, Mandubé-de-ferrão</t>
@@ -134,6 +143,9 @@
     <t xml:space="preserve">Ageneiosus ucayalensis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAJL7U-xOUtuDbJauMW6ZJZa/IMAGENS-PEIXES/Ageneiosus%20ucayalensis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes pequenos</t>
   </si>
   <si>
@@ -179,6 +191,9 @@
     <t xml:space="preserve">Sim. Categoria Vulnerável.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAIw7UAB1abn6rnlIJFQtUEa/IMAGENS-PEIXES/Aguarunichthys%20tocantinsensis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piaus</t>
   </si>
   <si>
@@ -194,6 +209,9 @@
     <t xml:space="preserve">Material vegetal</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKeQkaCqORp82Xpulp-TIJa/IMAGENS-PEIXES/Anostomoides%20laticeps.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outros</t>
   </si>
   <si>
@@ -212,6 +230,9 @@
     <t xml:space="preserve">Lagoas e lagos de água parada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAALWBpxgL5ZJXm2AVmCryg2a/IMAGENS-PEIXES/Apteronotus%20camposdapazi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes grandes</t>
   </si>
   <si>
@@ -224,6 +245,9 @@
     <t xml:space="preserve">Arapaimidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACka_hUaKbde4E4xBHACNIka/IMAGENS-PEIXES/Arapaima%20gigas.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carás, Marianas e Jacundás</t>
   </si>
   <si>
@@ -245,6 +269,9 @@
     <t xml:space="preserve">1.6</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0DneioOqyIlFnVhBuBrIma/IMAGENS-PEIXES/Astronotus%20ocellatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarís e piabas</t>
   </si>
   <si>
@@ -263,6 +290,9 @@
     <t xml:space="preserve">17.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAARmcMOm6sm8-Acgl-IGfs7a/IMAGENS-PEIXES/Astyanax%20bimaculatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarí-largo</t>
   </si>
   <si>
@@ -293,6 +323,9 @@
     <t xml:space="preserve">Auchenipterus nuchalis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADonhaaofeK5X8Kae3TtmXea/IMAGENS-PEIXES/Auchenipterus%20nuchalis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cascudos</t>
   </si>
   <si>
@@ -317,12 +350,18 @@
     <t xml:space="preserve">Sim. Categoria Criticamente Ameaçada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABLDIAcoryZmuZ1yNCkh_bca/IMAGENS-PEIXES/Baryancistrus%20longipinnis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baryancistrus niveatus</t>
   </si>
   <si>
     <t xml:space="preserve">0.52</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0GFEUZo6KUt88cpBB-Mt6a/IMAGENS-PEIXES/Baryancistrus%20niveatus.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bicudas</t>
   </si>
   <si>
@@ -335,12 +374,18 @@
     <t xml:space="preserve">Ctenoluciidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACtwxUVybx_x1SG4vrkhaMPa/IMAGENS-PEIXES/Boulengerella%20cuvieri.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boulengerella maculata</t>
   </si>
   <si>
     <t xml:space="preserve">31.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbp0j8KOAe-0Dcx77Dl8qXa/IMAGENS-PEIXES/Boulengerella%20maculata.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grandes bagres</t>
   </si>
   <si>
@@ -350,6 +395,9 @@
     <t xml:space="preserve">Brachiplatystoma filamentosum</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABxtnRUBNRs-HsFVLiNU4l5a/IMAGENS-PEIXES/Brachyplatystoma%20filamentosum.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piabanha, Matrinxã e Voadores</t>
   </si>
   <si>
@@ -362,6 +410,9 @@
     <t xml:space="preserve">Bryconidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRINRZIMszHYmg8NyAsYz8a/IMAGENS-PEIXES/Brycon%20falcatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piabanha, Matrinxã</t>
   </si>
   <si>
@@ -374,9 +425,15 @@
     <t xml:space="preserve">Sim. Categoria Ameaçada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAPSlNPXSQ30fITaf8vx1JXa/IMAGENS-PEIXES/Brycon%20gouldingi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brycon nattereri</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC071duLSb0-_L2O2-eUT3Ca/IMAGENS-PEIXES/Brycon%20nattereri.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piaba-beiradeira</t>
   </si>
   <si>
@@ -386,18 +443,27 @@
     <t xml:space="preserve">Peixes e insetos</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD-u046FFBIrJz1zPxAkqQpa/IMAGENS-PEIXES/Brycon%20pesu.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brycon polylepis</t>
   </si>
   <si>
     <t xml:space="preserve">22.4</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABynjb7Q9NVMqxB15cfyAkGa/IMAGENS-PEIXES/Brycon%20polylepis.jpeg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piquirão</t>
   </si>
   <si>
     <t xml:space="preserve">Bryconops alburnoides</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABQGtj9BtLvX47BWQhfyJLIa/IMAGENS-PEIXES/Bryconops%20alburnoides.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durinho, Cabeça-dura</t>
   </si>
   <si>
@@ -410,6 +476,9 @@
     <t xml:space="preserve">18.6</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADoR_ce3yrPzy_32z5R6hH3a/IMAGENS-PEIXES/Caenotropus%20labyrinthicus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Candirús</t>
   </si>
   <si>
@@ -449,6 +518,9 @@
     <t xml:space="preserve">0.07</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB4tOHEICbJt1GhIL7rYqbOa/IMAGENS-PEIXES/Chalceus%20epakros.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tucunarés</t>
   </si>
   <si>
@@ -464,6 +536,9 @@
     <t xml:space="preserve">4.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAc7NuWRD83n2qJk41k5nUFa/IMAGENS-PEIXES/Cichla%20kelberi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tucunaré-azul</t>
   </si>
   <si>
@@ -473,6 +548,9 @@
     <t xml:space="preserve">1.8</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADmlRY87ElsoG_zi8MlNEXna/IMAGENS-PEIXES/Cichla%20piquiti.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará, Caroço-de-manga</t>
   </si>
   <si>
@@ -482,6 +560,9 @@
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADh0XjKYaVO0pwM15bArc7Na/IMAGENS-PEIXES/Cichlasoma%20araguaiense.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baiacu</t>
   </si>
   <si>
@@ -491,6 +572,9 @@
     <t xml:space="preserve">Tetraodontidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACP1SsUstm2e5RiAhp7j2SJa/IMAGENS-PEIXES/Colomesus%20tocantinensis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mariana, Jacundá-vermelho</t>
   </si>
   <si>
@@ -515,6 +599,9 @@
     <t xml:space="preserve">Crenicichla sp</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA1Q0VNXY0SRw7Q_7PtT2sUa/IMAGENS-PEIXES/Crenicichla%20sp.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papa-terras e Curimatás</t>
   </si>
   <si>
@@ -527,6 +614,9 @@
     <t xml:space="preserve">Curimatidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACWNgC0aTPdqvBk5SXzuhDEa/IMAGENS-PEIXES/Curimata%20sp.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-icanga</t>
   </si>
   <si>
@@ -554,6 +644,9 @@
     <t xml:space="preserve">Gymnotidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAUA1GJECppGC6HINIlA3Ha/IMAGENS-PEIXES/Electrophorus%20electricus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miguelinho</t>
   </si>
   <si>
@@ -563,12 +656,18 @@
     <t xml:space="preserve">7.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACkyGY3CEXx-4CIhmTQAotAa/IMAGENS-PEIXES/Exodon%20paradoxus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corró, Acará-bicudo</t>
   </si>
   <si>
     <t xml:space="preserve">Geophagus aff. altifrons</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA55G4HJRbTddiae2B7XSXaa/IMAGENS-PEIXES/Geophagus%20aff.%20altifrons.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuvira</t>
   </si>
   <si>
@@ -578,6 +677,9 @@
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAtOK5Ptc3uYFHsuYqgYvHBa/IMAGENS-PEIXES/Gymnotus%20carapo.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-serra</t>
   </si>
   <si>
@@ -590,6 +692,9 @@
     <t xml:space="preserve">Rios de água turva.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhfEEr6AJJYDAe5n5UFqOTa/IMAGENS-PEIXES/Hassar%20wilderi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-rabo-vermelho</t>
   </si>
   <si>
@@ -602,24 +707,36 @@
     <t xml:space="preserve">Onívoro</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAlvks2c4jjlXtg5Ou-dx2Sa/IMAGENS-PEIXES/Hemiodus%20gracilis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-escama-fina</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus microlepis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABw58Df5JydE9Uj2kiFAiPpa/IMAGENS-PEIXES/Hemiodus%20microlepis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-vermelho</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus ternetzi</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAzELcO5juwRnU3EktUUAEa/IMAGENS-PEIXES/Hemiodus%20ternetzi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-escama-grossa</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus unimaculatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9qK2DiaWrpZaU8ZUS5_KTa/IMAGENS-PEIXES/Hemiodus%20unimaculatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeripoca, Jurupoca</t>
   </si>
   <si>
@@ -629,12 +746,18 @@
     <t xml:space="preserve">2.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAl6cy3FbAk4WYhiiffYtxwa/IMAGENS-PEIXES/Hemisorubim%20platyrhinchus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-folha</t>
   </si>
   <si>
     <t xml:space="preserve">Heros efasciatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABNXyYb9vofSrUWUr5KLibIa/IMAGENS-PEIXES/Heros%20efasciatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Traíras</t>
   </si>
   <si>
@@ -665,6 +788,9 @@
     <t xml:space="preserve">Hoplias curupira</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABp3CedBUy4OSEl9JxbdGPoa/IMAGENS-PEIXES/Hoplias%20curupira.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-larga</t>
   </si>
   <si>
@@ -674,6 +800,9 @@
     <t xml:space="preserve">8.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhzaYYlF0ydUA8q1dFmq21a/IMAGENS-PEIXES/Hydrolicus%20armatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-corcunda</t>
   </si>
   <si>
@@ -695,12 +824,18 @@
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA2w-xCEz8uZiJMHhCMXPAta/IMAGENS-PEIXES/Hypophthalmus%20edentatus.jpeg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-roxo</t>
   </si>
   <si>
     <t xml:space="preserve">Hypselacara temporalis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9zYTcEVV1RMxeHGRJSFB_a/IMAGENS-PEIXES/Hypselacara%20temporalis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cascudo-paca</t>
   </si>
   <si>
@@ -713,6 +848,9 @@
     <t xml:space="preserve">Leporinus affinis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD62wlUv8p7Up8jfR0-RMJWa/IMAGENS-PEIXES/Leporinus%20affinis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-comum</t>
   </si>
   <si>
@@ -722,6 +860,9 @@
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAcH2ZDtc1xtSkn1z4N7Bv5a/IMAGENS-PEIXES/Leporinus%20friderici.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinha-de-gato, Manjuba</t>
   </si>
   <si>
@@ -731,6 +872,9 @@
     <t xml:space="preserve">Engraulidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADQLMxB8c4nG68-KZ5slotda/IMAGENS-PEIXES/Lycengraulis%20batesi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-cabeça-gorda</t>
   </si>
   <si>
@@ -740,24 +884,36 @@
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKO5i_wq6CdG2vx6XYiChXa/IMAGENS-PEIXES/Megaleporinus%20trifasciatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-prata</t>
   </si>
   <si>
     <t xml:space="preserve">Megalonema platycephalum</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB65wsfEZ78mPPTgy82sTIaa/IMAGENS-PEIXES/Megalonema%20platycephalum.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-festivo</t>
   </si>
   <si>
     <t xml:space="preserve">Mesonauta festivus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAFB12YoMHltIrCKz95J0N6a/IMAGENS-PEIXES/Mesonauta%20festivus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarí-rabo-preto-e-branco</t>
   </si>
   <si>
     <t xml:space="preserve">Moenkhausia dichroura</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACol5cuO4afZV7RYqwKX2jsa/IMAGENS-PEIXES/Moenkhausia%20dichroura.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarí-rabo-vermelho-e-preto</t>
   </si>
   <si>
@@ -791,6 +947,9 @@
     <t xml:space="preserve">Rios com corredeiras.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADgaJuypIzxVdydZpjI2jtGa/IMAGENS-PEIXES/Mylesinus%20paucisquamatus.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Myleus setiger</t>
   </si>
   <si>
@@ -800,6 +959,9 @@
     <t xml:space="preserve">Myloplus schomburgkii</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABwMrOzi4QxAQa8BICg3RqVa/IMAGENS-PEIXES/Myloplus%20schomburgkii.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pacú-branca</t>
   </si>
   <si>
@@ -833,6 +995,9 @@
     <t xml:space="preserve">Osteoglossidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbBD0hys6_5gabZAipchOZa/IMAGENS-PEIXES/Osteoglossum%20bicirrhosum.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cuiú-cuiú</t>
   </si>
   <si>
@@ -851,6 +1016,9 @@
     <t xml:space="preserve">Scianidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAboGhsclsxzwgQ4Xfv6V21a/IMAGENS-PEIXES/Pachypops%20fourcroi.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arraias</t>
   </si>
   <si>
@@ -869,6 +1037,9 @@
     <t xml:space="preserve">Endêmica da Amazônia.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAz9zpQHO1XZs3Ue-dzt3aGa/IMAGENS-PEIXES/Paratrygon%20aiereba.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apapá, Sardinhão, Pescada-amarela</t>
   </si>
   <si>
@@ -881,12 +1052,18 @@
     <t xml:space="preserve">7.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAczBg7hoaaSyVKjtZtcKpma/IMAGENS-PEIXES/Pellona%20castelnaeana.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pescada-branca</t>
   </si>
   <si>
     <t xml:space="preserve">Pellona flavipinnis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0QdXEjfuSPWyQeSoNq8EMa/IMAGENS-PEIXES/Pelona%20flavipinnis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pirarara</t>
   </si>
   <si>
@@ -896,6 +1073,9 @@
     <t xml:space="preserve">44.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB2ima_yFRZjCU42YqGXrpYa/IMAGENS-PEIXES/Phractocephalus%20hemioliopterus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caranha, Pirapitinga</t>
   </si>
   <si>
@@ -905,6 +1085,9 @@
     <t xml:space="preserve">Frutas e sementes.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC5hVnqUSCqy6Bbzm2dvCA7a/IMAGENS-PEIXES/Piaractus%20brachypomus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chorão</t>
   </si>
   <si>
@@ -920,6 +1103,9 @@
     <t xml:space="preserve">Pimelodella gracilis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABA_0DUjbptm_Y8-dWAKweYa/IMAGENS-PEIXES/Pimelodella%20gracilis.jpg?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-moela</t>
   </si>
   <si>
@@ -935,12 +1121,18 @@
     <t xml:space="preserve">Pimelodus blochii</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACv-LWdkjxZsmwMea2Eys__a/IMAGENS-PEIXES/Pimelodus%20blochii.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-guarú</t>
   </si>
   <si>
     <t xml:space="preserve">Pimelodus ornatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACY0k_FbKogxn3ftpT7YRl0a/IMAGENS-PEIXES/Pimelodus%20ornatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barbado</t>
   </si>
   <si>
@@ -950,6 +1142,9 @@
     <t xml:space="preserve">7.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABRojeNV1nQfqy6OzqHXeQ6a/IMAGENS-PEIXES/Pinirampus%20pirinampu.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corvina</t>
   </si>
   <si>
@@ -959,12 +1154,18 @@
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADNkXb7GwwzyU0WI_ni5Mqaa/IMAGENS-PEIXES/Plagioscion%20squamosissimus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bacu-rebeca, Cascudo-rebeca, Cascudo listrado</t>
   </si>
   <si>
     <t xml:space="preserve">Platydoras costatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADGvFRM-iIO9acEevnuNroca/IMAGENS-PEIXES/Platydoras%20costatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Coroatá, Piranambú, Surubim-de-corredeira</t>
   </si>
   <si>
@@ -995,6 +1196,9 @@
     <t xml:space="preserve">29.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADspctFW-A_QNbE0nUldNeFa/IMAGENS-PEIXES/Potamorrhapis%20guianensis.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arraia-de-fogo</t>
   </si>
   <si>
@@ -1028,6 +1232,9 @@
     <t xml:space="preserve">Prochilodontidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABZsUb_VECf65xXyriajtmXa/IMAGENS-PEIXES/Prochilodus%20nigricans.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Branquinha-cascuda</t>
   </si>
   <si>
@@ -1037,12 +1244,18 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA3SRIAa6wQcCXALkJrxvnfa/IMAGENS-PEIXES/Psectrogaster%20amazonica.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surubim, Cachara, Pintado</t>
   </si>
   <si>
     <t xml:space="preserve">Pseudoplatystoma fasciatum</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACwwSBlnzM1v2ekxEI-FaLra/IMAGENS-PEIXES/Pseudoplatystoma%20fasciatum.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Abotoado</t>
   </si>
   <si>
@@ -1067,6 +1280,9 @@
     <t xml:space="preserve">39.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACaiPp9S0feRUmCdDA_A7Zaa/IMAGENS-PEIXES/Pterygoplichthys%20joselimaianus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha-vermelha</t>
   </si>
   <si>
@@ -1076,6 +1292,9 @@
     <t xml:space="preserve">3.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABPZ1bQhiMhAJZs1YT0boMZa/IMAGENS-PEIXES/Pygocentrus%20nattereri.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-facão</t>
   </si>
   <si>
@@ -1085,6 +1304,9 @@
     <t xml:space="preserve">2.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADLn_WDDyK6XoRR5WjZIksxa/IMAGENS-PEIXES/Raphiodon%20vulpinus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jundiá, Bagre, Lobó</t>
   </si>
   <si>
@@ -1097,6 +1319,9 @@
     <t xml:space="preserve">47.4</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRGuurdw1cxSE-f2xT6B6Ba/IMAGENS-PEIXES/Rhamdia%20quelen.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tubarana, Tabarana</t>
   </si>
   <si>
@@ -1109,6 +1334,9 @@
     <t xml:space="preserve">Schizodon vittatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7PhtmbRbGoVHbqFCGziu5a/IMAGENS-PEIXES/Schizodon%20vittatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jaraqui</t>
   </si>
   <si>
@@ -1124,6 +1352,9 @@
     <t xml:space="preserve">Serrasalmus eigenmanni</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADbdgzn0LLaaqLU8CtMS_nka/IMAGENS-PEIXES/Serrasalmus%20eigenmanni.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha-preta</t>
   </si>
   <si>
@@ -1133,6 +1364,9 @@
     <t xml:space="preserve">41.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD16Sofr2Ywi_8VYMLZakqKa/IMAGENS-PEIXES/Serrasalmus%20rhombeus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bico-de-pato, Jurupensém</t>
   </si>
   <si>
@@ -1142,12 +1376,18 @@
     <t xml:space="preserve">54.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7_U-UcEFS-B3LXey8f1jDa/IMAGENS-PEIXES/Sorubim%20lima.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surubim-chicote, Bargada</t>
   </si>
   <si>
     <t xml:space="preserve">Sorubimichthys planiceps</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA8oKMC9kuMAu1r7EbAUWr-a/IMAGENS-PEIXES/Sorubimichthys%20planiceps.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cascudo-chicote</t>
   </si>
   <si>
@@ -1169,12 +1409,18 @@
     <t xml:space="preserve">Tetragonopterus argenteus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAClMTqEFS4cN3ZYUG6_pqbTa/IMAGENS-PEIXES/Tetragonopterus%20argenteus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cangatí, Cachorro-do-padre</t>
   </si>
   <si>
     <t xml:space="preserve">Trachelyopterus galeatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABFCXn00hlsWSOmMWfF4Kaea/IMAGENS-PEIXES/Trachelyopterus%20galeatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinhas</t>
   </si>
   <si>
@@ -1187,6 +1433,9 @@
     <t xml:space="preserve">25.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA6WfuKsiegVhKjnd6Pqs_Ja/IMAGENS-PEIXES/Triportheus%20albus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinha-papuda</t>
   </si>
   <si>
@@ -1196,10 +1445,16 @@
     <t xml:space="preserve">16.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABuSkYGBB2lWirYWccINtpqa/IMAGENS-PEIXES/Triportheus%20trifurcatus.JPG?raw=1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jaú</t>
   </si>
   <si>
     <t xml:space="preserve">Zungaro zungaro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACCG9643Nm047hX03iiH1Sya/IMAGENS-PEIXES/Zungaro%20zungaro.JPG?raw=1</t>
   </si>
   <si>
     <t xml:space="preserve">Peixes de escama</t>
@@ -1316,29 +1571,29 @@
   </sheetPr>
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="42" sqref="H4:H7 H11:H14 H19 H22 H25 H27 H29:H31 H35:I35 H39:I39 H41 H56 H66 H91:H92 H95 H100 H103 H108:H109 H115:H116 I3:I6 I11:I12 I14 I17 I30:I33 I43 I45:I46 I48:I49 I52 I54:I56 I60 I62 I64 I73 I78:I80 I86:I88 I94 I96:I97 I99 I101:I102 I104 I106:I107 I109 I114:I115 H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Y19" activeCellId="0" sqref="Y19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.66"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1467,36 +1722,36 @@
         <v>22</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J4" s="0" t="s">
         <v>22</v>
@@ -1505,30 +1760,30 @@
         <v>22</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M4" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>20</v>
@@ -1537,10 +1792,10 @@
         <v>21</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J5" s="0" t="s">
         <v>22</v>
@@ -1549,13 +1804,13 @@
         <v>22</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1563,25 +1818,25 @@
         <v>15</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>115</v>
@@ -1598,49 +1853,46 @@
       <c r="M6" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1648,19 +1900,19 @@
         <v>15</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
         <v>21</v>
@@ -1675,39 +1927,39 @@
         <v>22</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K9" s="0" t="s">
         <v>22</v>
@@ -1719,7 +1971,7 @@
         <v>22</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,22 +1979,22 @@
         <v>15</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>450</v>
@@ -1762,34 +2014,37 @@
       <c r="M10" s="0" t="s">
         <v>22</v>
       </c>
+      <c r="O10" s="0" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J11" s="0" t="s">
         <v>22</v>
@@ -1804,7 +2059,7 @@
         <v>22</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>23</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1812,25 +2067,25 @@
         <v>15</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G12" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>96</v>
@@ -1848,7 +2103,7 @@
         <v>22</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1856,28 +2111,28 @@
         <v>15</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K13" s="0" t="s">
         <v>22</v>
@@ -1894,25 +2149,25 @@
         <v>15</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>69</v>
@@ -1929,28 +2184,25 @@
       <c r="M14" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O14" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="0" t="s">
         <v>21</v>
@@ -1965,45 +2217,45 @@
         <v>22</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O15" s="0" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L16" s="0" t="s">
         <v>22</v>
@@ -2012,42 +2264,42 @@
         <v>22</v>
       </c>
       <c r="O16" s="0" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>34</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L17" s="0" t="s">
         <v>22</v>
@@ -2056,7 +2308,7 @@
         <v>22</v>
       </c>
       <c r="O17" s="0" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2064,16 +2316,16 @@
         <v>15</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>20</v>
@@ -2100,7 +2352,7 @@
         <v>22</v>
       </c>
       <c r="O18" s="0" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2108,16 +2360,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>20</v>
@@ -2126,7 +2378,7 @@
         <v>21</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J19" s="0" t="s">
         <v>22</v>
@@ -2141,24 +2393,24 @@
         <v>22</v>
       </c>
       <c r="O19" s="0" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>20</v>
@@ -2179,10 +2431,13 @@
         <v>22</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M20" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="O20" s="0" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,16 +2445,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>20</v>
@@ -2220,13 +2475,13 @@
         <v>22</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O21" s="0" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,16 +2489,16 @@
         <v>15</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>20</v>
@@ -2252,22 +2507,22 @@
         <v>21</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M22" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O22" s="0" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2275,40 +2530,40 @@
         <v>15</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>37</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M23" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O23" s="0" t="s">
-        <v>23</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,19 +2571,19 @@
         <v>15</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G24" s="0" t="s">
         <v>21</v>
@@ -2343,13 +2598,13 @@
         <v>22</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M24" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O24" s="0" t="s">
-        <v>23</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2357,25 +2612,25 @@
         <v>15</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="J25" s="0" t="s">
         <v>22</v>
@@ -2384,13 +2639,13 @@
         <v>22</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M25" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O25" s="0" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2398,19 +2653,19 @@
         <v>15</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G26" s="0" t="s">
         <v>21</v>
@@ -2428,7 +2683,7 @@
         <v>22</v>
       </c>
       <c r="O26" s="0" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2436,25 +2691,25 @@
         <v>15</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J27" s="0" t="s">
         <v>22</v>
@@ -2469,27 +2724,27 @@
         <v>22</v>
       </c>
       <c r="O27" s="0" t="s">
-        <v>23</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G28" s="0" t="s">
         <v>21</v>
@@ -2509,34 +2764,31 @@
       <c r="M28" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O28" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G29" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>280</v>
@@ -2548,7 +2800,7 @@
         <v>22</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M29" s="0" t="s">
         <v>22</v>
@@ -2559,28 +2811,28 @@
         <v>15</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G30" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="J30" s="0" t="s">
         <v>22</v>
@@ -2595,7 +2847,7 @@
         <v>22</v>
       </c>
       <c r="O30" s="0" t="s">
-        <v>23</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2603,28 +2855,28 @@
         <v>15</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="J31" s="0" t="s">
         <v>22</v>
@@ -2639,7 +2891,7 @@
         <v>22</v>
       </c>
       <c r="O31" s="0" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2647,28 +2899,28 @@
         <v>15</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>48</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J32" s="0" t="s">
         <v>22</v>
@@ -2683,7 +2935,7 @@
         <v>22</v>
       </c>
       <c r="O32" s="0" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2691,31 +2943,31 @@
         <v>15</v>
       </c>
       <c r="B33" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="G33" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>22</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K33" s="0" t="s">
         <v>22</v>
@@ -2727,36 +2979,36 @@
         <v>22</v>
       </c>
       <c r="O33" s="0" t="s">
-        <v>23</v>
+        <v>178</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K34" s="0" t="s">
         <v>22</v>
@@ -2768,7 +3020,7 @@
         <v>22</v>
       </c>
       <c r="O34" s="0" t="s">
-        <v>23</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2776,28 +3028,28 @@
         <v>15</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="J35" s="0" t="s">
         <v>22</v>
@@ -2817,22 +3069,22 @@
         <v>15</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>25</v>
@@ -2855,22 +3107,22 @@
         <v>15</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J37" s="0" t="s">
         <v>22</v>
@@ -2885,7 +3137,7 @@
         <v>22</v>
       </c>
       <c r="O37" s="0" t="s">
-        <v>23</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2893,19 +3145,19 @@
         <v>15</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G38" s="0" t="s">
         <v>21</v>
@@ -2917,13 +3169,13 @@
         <v>22</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M38" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O38" s="0" t="s">
-        <v>23</v>
+        <v>196</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2934,13 +3186,13 @@
         <v>16</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F39" s="0" t="s">
         <v>20</v>
@@ -2949,10 +3201,10 @@
         <v>21</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="J39" s="0" t="s">
         <v>22</v>
@@ -2961,7 +3213,7 @@
         <v>22</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M39" s="0" t="s">
         <v>22</v>
@@ -2969,25 +3221,25 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>250</v>
@@ -3008,7 +3260,7 @@
         <v>22</v>
       </c>
       <c r="O40" s="0" t="s">
-        <v>23</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3016,16 +3268,16 @@
         <v>15</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F41" s="0" t="s">
         <v>20</v>
@@ -3034,7 +3286,7 @@
         <v>21</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="J41" s="0" t="s">
         <v>22</v>
@@ -3049,7 +3301,7 @@
         <v>22</v>
       </c>
       <c r="O41" s="0" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,28 +3309,28 @@
         <v>15</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F42" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K42" s="0" t="s">
         <v>22</v>
@@ -3088,35 +3340,38 @@
       </c>
       <c r="M42" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="O42" s="0" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>76</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="J43" s="0" t="s">
         <v>22</v>
@@ -3131,30 +3386,30 @@
         <v>22</v>
       </c>
       <c r="O43" s="0" t="s">
-        <v>23</v>
+        <v>217</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>25</v>
@@ -3166,13 +3421,13 @@
         <v>22</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M44" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O44" s="0" t="s">
-        <v>23</v>
+        <v>222</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3180,19 +3435,19 @@
         <v>15</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G45" s="0" t="s">
         <v>21</v>
@@ -3201,7 +3456,7 @@
         <v>20</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="J45" s="0" t="s">
         <v>22</v>
@@ -3216,7 +3471,7 @@
         <v>22</v>
       </c>
       <c r="O45" s="0" t="s">
-        <v>23</v>
+        <v>227</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3224,19 +3479,19 @@
         <v>15</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G46" s="0" t="s">
         <v>21</v>
@@ -3260,7 +3515,7 @@
         <v>22</v>
       </c>
       <c r="O46" s="0" t="s">
-        <v>23</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,19 +3523,19 @@
         <v>15</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G47" s="0" t="s">
         <v>21</v>
@@ -3298,7 +3553,7 @@
         <v>22</v>
       </c>
       <c r="O47" s="0" t="s">
-        <v>23</v>
+        <v>233</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3306,19 +3561,19 @@
         <v>15</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G48" s="0" t="s">
         <v>21</v>
@@ -3342,27 +3597,27 @@
         <v>22</v>
       </c>
       <c r="O48" s="0" t="s">
-        <v>23</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G49" s="0" t="s">
         <v>21</v>
@@ -3371,7 +3626,7 @@
         <v>61</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="J49" s="0" t="s">
         <v>22</v>
@@ -3380,13 +3635,13 @@
         <v>22</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M49" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O49" s="0" t="s">
-        <v>23</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3394,22 +3649,22 @@
         <v>15</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J50" s="0" t="s">
         <v>22</v>
@@ -3424,7 +3679,7 @@
         <v>22</v>
       </c>
       <c r="O50" s="0" t="s">
-        <v>23</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3432,22 +3687,22 @@
         <v>15</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F51" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>25</v>
@@ -3464,37 +3719,34 @@
       <c r="M51" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O51" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F52" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>65</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="J52" s="0" t="s">
         <v>22</v>
@@ -3507,9 +3759,6 @@
       </c>
       <c r="M52" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3517,22 +3766,22 @@
         <v>15</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>212</v>
+        <v>253</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F53" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>35</v>
@@ -3550,7 +3799,7 @@
         <v>22</v>
       </c>
       <c r="O53" s="0" t="s">
-        <v>23</v>
+        <v>254</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3561,13 +3810,13 @@
         <v>16</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F54" s="0" t="s">
         <v>20</v>
@@ -3579,7 +3828,7 @@
         <v>89</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="J54" s="0" t="s">
         <v>22</v>
@@ -3588,13 +3837,13 @@
         <v>22</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M54" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O54" s="0" t="s">
-        <v>23</v>
+        <v>258</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3605,13 +3854,13 @@
         <v>16</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F55" s="0" t="s">
         <v>20</v>
@@ -3623,7 +3872,7 @@
         <v>59</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="J55" s="0" t="s">
         <v>22</v>
@@ -3632,42 +3881,39 @@
         <v>22</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M55" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="G56" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="J56" s="0" t="s">
         <v>22</v>
@@ -3676,13 +3922,13 @@
         <v>22</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="O56" s="0" t="s">
-        <v>23</v>
+        <v>266</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3690,22 +3936,22 @@
         <v>15</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>223</v>
+        <v>267</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>224</v>
+        <v>268</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J57" s="0" t="s">
         <v>22</v>
@@ -3720,27 +3966,27 @@
         <v>22</v>
       </c>
       <c r="O57" s="0" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G58" s="0" t="s">
         <v>21</v>
@@ -3766,19 +4012,19 @@
         <v>15</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>227</v>
+        <v>272</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G59" s="0" t="s">
         <v>21</v>
@@ -3799,7 +4045,7 @@
         <v>22</v>
       </c>
       <c r="O59" s="0" t="s">
-        <v>23</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,19 +4053,19 @@
         <v>15</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>229</v>
+        <v>275</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G60" s="0" t="s">
         <v>21</v>
@@ -3828,7 +4074,7 @@
         <v>40</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="J60" s="0" t="s">
         <v>22</v>
@@ -3843,7 +4089,7 @@
         <v>22</v>
       </c>
       <c r="O60" s="0" t="s">
-        <v>23</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3851,19 +4097,19 @@
         <v>15</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G61" s="0" t="s">
         <v>21</v>
@@ -3884,7 +4130,7 @@
         <v>22</v>
       </c>
       <c r="O61" s="0" t="s">
-        <v>23</v>
+        <v>282</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3892,19 +4138,19 @@
         <v>15</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>235</v>
+        <v>283</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>236</v>
+        <v>284</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G62" s="0" t="s">
         <v>21</v>
@@ -3913,7 +4159,7 @@
         <v>45</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>237</v>
+        <v>285</v>
       </c>
       <c r="J62" s="0" t="s">
         <v>22</v>
@@ -3922,33 +4168,33 @@
         <v>22</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M62" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O62" s="0" t="s">
-        <v>23</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>238</v>
+        <v>287</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>239</v>
+        <v>288</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G63" s="0" t="s">
         <v>21</v>
@@ -3963,13 +4209,13 @@
         <v>22</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M63" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O63" s="0" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3977,22 +4223,22 @@
         <v>15</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>97</v>
@@ -4010,7 +4256,7 @@
         <v>22</v>
       </c>
       <c r="O64" s="0" t="s">
-        <v>23</v>
+        <v>292</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4018,19 +4264,19 @@
         <v>15</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>242</v>
+        <v>293</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>243</v>
+        <v>294</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G65" s="0" t="s">
         <v>21</v>
@@ -4051,7 +4297,7 @@
         <v>22</v>
       </c>
       <c r="O65" s="0" t="s">
-        <v>23</v>
+        <v>295</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4059,25 +4305,25 @@
         <v>15</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G66" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J66" s="0" t="s">
         <v>22</v>
@@ -4097,19 +4343,19 @@
         <v>15</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G67" s="0" t="s">
         <v>21</v>
@@ -4129,49 +4375,46 @@
       <c r="M67" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O67" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>251</v>
+        <v>303</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>253</v>
+        <v>305</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M68" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O68" s="0" t="s">
-        <v>23</v>
+        <v>307</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4179,19 +4422,19 @@
         <v>15</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>250</v>
+        <v>302</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G69" s="0" t="s">
         <v>21</v>
@@ -4206,7 +4449,7 @@
         <v>22</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M69" s="0" t="s">
         <v>22</v>
@@ -4217,19 +4460,19 @@
         <v>15</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>256</v>
+        <v>309</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>257</v>
+        <v>310</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G70" s="0" t="s">
         <v>21</v>
@@ -4244,13 +4487,13 @@
         <v>22</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M70" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O70" s="0" t="s">
-        <v>23</v>
+        <v>311</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4258,19 +4501,19 @@
         <v>15</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G71" s="0" t="s">
         <v>21</v>
@@ -4282,7 +4525,7 @@
         <v>22</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M71" s="0" t="s">
         <v>22</v>
@@ -4293,19 +4536,19 @@
         <v>15</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G72" s="0" t="s">
         <v>21</v>
@@ -4323,7 +4566,7 @@
         <v>22</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M72" s="0" t="s">
         <v>22</v>
@@ -4334,28 +4577,28 @@
         <v>15</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>60</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="J73" s="0" t="s">
         <v>22</v>
@@ -4367,7 +4610,7 @@
         <v>22</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4375,22 +4618,22 @@
         <v>15</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>266</v>
+        <v>320</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>267</v>
+        <v>321</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>268</v>
+        <v>322</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>90</v>
@@ -4411,27 +4654,27 @@
         <v>22</v>
       </c>
       <c r="O74" s="0" t="s">
-        <v>23</v>
+        <v>323</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G75" s="0" t="s">
         <v>21</v>
@@ -4449,7 +4692,7 @@
         <v>22</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M75" s="0" t="s">
         <v>22</v>
@@ -4460,16 +4703,16 @@
         <v>15</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>272</v>
+        <v>327</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>273</v>
+        <v>328</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="F76" s="0" t="s">
         <v>20</v>
@@ -4481,30 +4724,30 @@
         <v>25</v>
       </c>
       <c r="O76" s="0" t="s">
-        <v>23</v>
+        <v>330</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>279</v>
+        <v>335</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>80</v>
@@ -4513,10 +4756,10 @@
         <v>14</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L77" s="0" t="s">
         <v>22</v>
@@ -4525,7 +4768,7 @@
         <v>22</v>
       </c>
       <c r="O77" s="0" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4533,16 +4776,16 @@
         <v>15</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="F78" s="0" t="s">
         <v>20</v>
@@ -4554,7 +4797,7 @@
         <v>80</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="J78" s="0" t="s">
         <v>22</v>
@@ -4569,7 +4812,7 @@
         <v>22</v>
       </c>
       <c r="O78" s="0" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,16 +4820,16 @@
         <v>15</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>285</v>
+        <v>343</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>286</v>
+        <v>344</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="F79" s="0" t="s">
         <v>20</v>
@@ -4598,7 +4841,7 @@
         <v>80</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>284</v>
+        <v>341</v>
       </c>
       <c r="J79" s="0" t="s">
         <v>22</v>
@@ -4607,30 +4850,30 @@
         <v>22</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M79" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O79" s="0" t="s">
-        <v>23</v>
+        <v>345</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>287</v>
+        <v>346</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>288</v>
+        <v>347</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F80" s="0" t="s">
         <v>20</v>
@@ -4642,7 +4885,7 @@
         <v>135</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>289</v>
+        <v>348</v>
       </c>
       <c r="J80" s="0" t="s">
         <v>22</v>
@@ -4651,13 +4894,13 @@
         <v>22</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M80" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O80" s="0" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4665,19 +4908,19 @@
         <v>15</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>290</v>
+        <v>350</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>291</v>
+        <v>351</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>292</v>
+        <v>352</v>
       </c>
       <c r="G81" s="0" t="s">
         <v>21</v>
@@ -4695,33 +4938,33 @@
         <v>22</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M81" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O81" s="0" t="s">
-        <v>23</v>
+        <v>353</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G82" s="0" t="s">
         <v>21</v>
@@ -4744,22 +4987,22 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>296</v>
+        <v>357</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>297</v>
+        <v>358</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G83" s="0" t="s">
         <v>21</v>
@@ -4780,30 +5023,30 @@
         <v>22</v>
       </c>
       <c r="O83" s="0" t="s">
-        <v>23</v>
+        <v>359</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>39</v>
@@ -4815,36 +5058,33 @@
         <v>22</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M84" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>301</v>
+        <v>363</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>302</v>
+        <v>364</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F85" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>35</v>
@@ -4856,36 +5096,36 @@
         <v>22</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M85" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O85" s="0" t="s">
-        <v>23</v>
+        <v>365</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>303</v>
+        <v>366</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>304</v>
+        <v>367</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F86" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>35</v>
@@ -4900,33 +5140,33 @@
         <v>22</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M86" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O86" s="0" t="s">
-        <v>23</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>305</v>
+        <v>369</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>306</v>
+        <v>370</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G87" s="0" t="s">
         <v>21</v>
@@ -4935,7 +5175,7 @@
         <v>120</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>307</v>
+        <v>371</v>
       </c>
       <c r="J87" s="0" t="s">
         <v>22</v>
@@ -4944,13 +5184,13 @@
         <v>22</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M87" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O87" s="0" t="s">
-        <v>23</v>
+        <v>372</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4958,16 +5198,16 @@
         <v>15</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>271</v>
+        <v>326</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>308</v>
+        <v>373</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>309</v>
+        <v>374</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>274</v>
+        <v>329</v>
       </c>
       <c r="F88" s="0" t="s">
         <v>20</v>
@@ -4979,7 +5219,7 @@
         <v>80</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>310</v>
+        <v>375</v>
       </c>
       <c r="J88" s="0" t="s">
         <v>22</v>
@@ -4994,27 +5234,27 @@
         <v>22</v>
       </c>
       <c r="O88" s="0" t="s">
-        <v>23</v>
+        <v>376</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>311</v>
+        <v>377</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>312</v>
+        <v>378</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G89" s="0" t="s">
         <v>21</v>
@@ -5035,30 +5275,30 @@
         <v>22</v>
       </c>
       <c r="O89" s="0" t="s">
-        <v>23</v>
+        <v>379</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F90" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>80</v>
@@ -5070,10 +5310,13 @@
         <v>22</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M90" s="0" t="s">
         <v>22</v>
+      </c>
+      <c r="O90" s="0" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5081,25 +5324,25 @@
         <v>15</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G91" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="J91" s="0" t="s">
         <v>22</v>
@@ -5119,25 +5362,25 @@
         <v>15</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>318</v>
+        <v>385</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>319</v>
+        <v>386</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>321</v>
+        <v>388</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>322</v>
+        <v>389</v>
       </c>
       <c r="J92" s="0" t="s">
         <v>22</v>
@@ -5152,36 +5395,36 @@
         <v>22</v>
       </c>
       <c r="O92" s="0" t="s">
-        <v>23</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>45</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K93" s="0" t="s">
         <v>22</v>
@@ -5195,31 +5438,31 @@
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>35</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="J94" s="0" t="s">
         <v>22</v>
@@ -5239,25 +5482,25 @@
         <v>15</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>283</v>
+        <v>340</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G95" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="J95" s="0" t="s">
         <v>22</v>
@@ -5277,19 +5520,19 @@
         <v>15</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>331</v>
+        <v>399</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>332</v>
+        <v>400</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G96" s="0" t="s">
         <v>21</v>
@@ -5298,7 +5541,7 @@
         <v>45</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="J96" s="0" t="s">
         <v>22</v>
@@ -5307,13 +5550,13 @@
         <v>22</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M96" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O96" s="0" t="s">
-        <v>23</v>
+        <v>402</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5321,19 +5564,19 @@
         <v>15</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>334</v>
+        <v>403</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>335</v>
+        <v>404</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G97" s="0" t="s">
         <v>21</v>
@@ -5342,7 +5585,7 @@
         <v>19</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="J97" s="0" t="s">
         <v>22</v>
@@ -5351,30 +5594,30 @@
         <v>22</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M97" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O97" s="0" t="s">
-        <v>23</v>
+        <v>406</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>337</v>
+        <v>407</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>338</v>
+        <v>408</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F98" s="0" t="s">
         <v>20</v>
@@ -5395,33 +5638,33 @@
         <v>22</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M98" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O98" s="0" t="s">
-        <v>23</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>339</v>
+        <v>410</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="G99" s="0" t="s">
         <v>21</v>
@@ -5430,7 +5673,7 @@
         <v>70</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="J99" s="0" t="s">
         <v>22</v>
@@ -5439,7 +5682,7 @@
         <v>22</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M99" s="0" t="s">
         <v>22</v>
@@ -5447,31 +5690,31 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>343</v>
+        <v>414</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>344</v>
+        <v>415</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>345</v>
+        <v>416</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>346</v>
+        <v>417</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K100" s="0" t="s">
         <v>22</v>
@@ -5483,7 +5726,7 @@
         <v>22</v>
       </c>
       <c r="O100" s="0" t="s">
-        <v>23</v>
+        <v>418</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5491,16 +5734,16 @@
         <v>15</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>347</v>
+        <v>419</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>348</v>
+        <v>420</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F101" s="0" t="s">
         <v>20</v>
@@ -5512,7 +5755,7 @@
         <v>50</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="J101" s="0" t="s">
         <v>22</v>
@@ -5521,13 +5764,13 @@
         <v>22</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M101" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O101" s="0" t="s">
-        <v>23</v>
+        <v>422</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,13 +5781,13 @@
         <v>16</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>350</v>
+        <v>423</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>351</v>
+        <v>424</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F102" s="0" t="s">
         <v>20</v>
@@ -5556,7 +5799,7 @@
         <v>80</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>352</v>
+        <v>425</v>
       </c>
       <c r="J102" s="0" t="s">
         <v>22</v>
@@ -5565,39 +5808,39 @@
         <v>22</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M102" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O102" s="0" t="s">
-        <v>23</v>
+        <v>426</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>353</v>
+        <v>427</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F103" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>355</v>
+        <v>429</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="I103" s="0" t="n">
         <v>4</v>
@@ -5615,7 +5858,7 @@
         <v>22</v>
       </c>
       <c r="O103" s="0" t="s">
-        <v>23</v>
+        <v>431</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5623,28 +5866,28 @@
         <v>15</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F104" s="0" t="s">
         <v>20</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>254</v>
+        <v>306</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>45</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="J104" s="0" t="s">
         <v>22</v>
@@ -5653,13 +5896,10 @@
         <v>22</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M104" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="O104" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5667,19 +5907,19 @@
         <v>15</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>360</v>
+        <v>435</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G105" s="0" t="s">
         <v>21</v>
@@ -5700,7 +5940,7 @@
         <v>22</v>
       </c>
       <c r="O105" s="0" t="s">
-        <v>23</v>
+        <v>436</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5708,19 +5948,19 @@
         <v>15</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>333</v>
+        <v>401</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G106" s="0" t="s">
         <v>21</v>
@@ -5729,7 +5969,7 @@
         <v>54</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="J106" s="0" t="s">
         <v>22</v>
@@ -5738,7 +5978,7 @@
         <v>22</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M106" s="0" t="s">
         <v>22</v>
@@ -5749,16 +5989,16 @@
         <v>15</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>364</v>
+        <v>440</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>365</v>
+        <v>441</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F107" s="0" t="s">
         <v>20</v>
@@ -5785,7 +6025,7 @@
         <v>22</v>
       </c>
       <c r="O107" s="0" t="s">
-        <v>23</v>
+        <v>442</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5793,16 +6033,16 @@
         <v>15</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>249</v>
+        <v>301</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>366</v>
+        <v>443</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>367</v>
+        <v>444</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>252</v>
+        <v>304</v>
       </c>
       <c r="F108" s="0" t="s">
         <v>20</v>
@@ -5811,7 +6051,7 @@
         <v>21</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>368</v>
+        <v>445</v>
       </c>
       <c r="I108" s="0" t="n">
         <v>3</v>
@@ -5823,30 +6063,30 @@
         <v>22</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M108" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O108" s="0" t="s">
-        <v>23</v>
+        <v>446</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>369</v>
+        <v>447</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>370</v>
+        <v>448</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F109" s="0" t="s">
         <v>20</v>
@@ -5855,10 +6095,10 @@
         <v>21</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>371</v>
+        <v>449</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="J109" s="0" t="s">
         <v>22</v>
@@ -5867,30 +6107,30 @@
         <v>22</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M109" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O109" s="0" t="s">
-        <v>23</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>373</v>
+        <v>452</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F110" s="0" t="s">
         <v>20</v>
@@ -5908,33 +6148,33 @@
         <v>22</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M110" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O110" s="0" t="s">
-        <v>23</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G111" s="0" t="s">
         <v>21</v>
@@ -5953,32 +6193,29 @@
       </c>
       <c r="M111" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="O111" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>150</v>
@@ -5995,28 +6232,25 @@
       <c r="M112" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="O112" s="0" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>379</v>
+        <v>459</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>380</v>
+        <v>460</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G113" s="0" t="s">
         <v>21</v>
@@ -6037,30 +6271,30 @@
         <v>22</v>
       </c>
       <c r="O113" s="0" t="s">
-        <v>23</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>381</v>
+        <v>462</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>382</v>
+        <v>463</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>30</v>
@@ -6081,7 +6315,7 @@
         <v>22</v>
       </c>
       <c r="O114" s="0" t="s">
-        <v>23</v>
+        <v>464</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6089,28 +6323,28 @@
         <v>15</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>384</v>
+        <v>466</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G115" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>386</v>
+        <v>468</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>336</v>
+        <v>405</v>
       </c>
       <c r="J115" s="0" t="s">
         <v>22</v>
@@ -6119,13 +6353,13 @@
         <v>22</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M115" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O115" s="0" t="s">
-        <v>23</v>
+        <v>469</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6133,57 +6367,57 @@
         <v>15</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>387</v>
+        <v>470</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G116" s="0" t="s">
         <v>21</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>389</v>
+        <v>472</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K116" s="0" t="s">
         <v>22</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M116" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O116" s="0" t="s">
-        <v>23</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>390</v>
+        <v>474</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>391</v>
+        <v>475</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F117" s="0" t="s">
         <v>20</v>
@@ -6204,34 +6438,31 @@
         <v>22</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="M117" s="0" t="s">
         <v>22</v>
       </c>
       <c r="O117" s="0" t="s">
-        <v>23</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="O118" s="0" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6251,10 +6482,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="42" sqref="H4:H7 H11:H14 H19 H22 H25 H27 H29:H31 H35:I35 H39:I39 H41 H56 H66 H91:H92 H95 H100 H103 H108:H109 H115:H116 I3:I6 I11:I12 I14 I17 I30:I33 I43 I45:I46 I48:I49 I52 I54:I56 I60 I62 I64 I73 I78:I80 I86:I88 I94 I96:I97 I99 I101:I102 I104 I106:I107 I109 I114:I115 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/utils/seed/planilha-dados3.xlsx
+++ b/src/utils/seed/planilha-dados3.xlsx
@@ -13,6 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$O$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1450" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="480">
   <si>
     <t xml:space="preserve">Grande Grupo</t>
   </si>
@@ -71,6 +72,9 @@
     <t xml:space="preserve">Foto</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACeuUVRbAKuiFQ1f_Rdl0BNa/IMAGENS-PEIXES/Acestrorhynchus%20falcatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes com escamas</t>
   </si>
   <si>
@@ -95,37 +99,46 @@
     <t xml:space="preserve">Não</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHF0CqNrSimEp_BtrrIP_ka/IMAGENS-PEIXES/Acestrorhynchus%20microlepis.JPG?dl=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acestrorhynchus microlepis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHwXZoWko3om7Oo9wggbbha/IMAGENS-PEIXES/Ageneiosus%20inermis.JPG?dl=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peixes de couro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bagres médios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boca-larga, Fidalgo, Mandubé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ageneiosus inermis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auchenipteridae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rios com água corrente.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">64.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.1</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sim</t>
   </si>
   <si>
-    <t xml:space="preserve">Acestrorhynchus microlepis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peixes de couro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bagres médios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Boca-larga, Fidalgo, Mandubé</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ageneiosus inermis</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Auchenipteridae</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rios com água corrente.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">64.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAJL7U-xOUtuDbJauMW6ZJZa/IMAGENS-PEIXES/Ageneiosus%20ucayalensis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Fidalgo, Mandubé-de-ferrão</t>
@@ -152,6 +165,9 @@
     <t xml:space="preserve">26.8</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAIw7UAB1abn6rnlIJFQtUEa/IMAGENS-PEIXES/Aguarunichthys%20tocantinsensis.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandís</t>
   </si>
   <si>
@@ -179,6 +195,9 @@
     <t xml:space="preserve">Sim. Categoria Vulnerável.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKeQkaCqORp82Xpulp-TIJa/IMAGENS-PEIXES/Anostomoides%20laticeps.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piaus</t>
   </si>
   <si>
@@ -194,6 +213,9 @@
     <t xml:space="preserve">Material vegetal</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAALWBpxgL5ZJXm2AVmCryg2a/IMAGENS-PEIXES/Apteronotus%20camposdapazi.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Outros</t>
   </si>
   <si>
@@ -212,6 +234,9 @@
     <t xml:space="preserve">Lagoas e lagos de água parada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACka_hUaKbde4E4xBHACNIka/IMAGENS-PEIXES/Arapaima%20gigas.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes grandes</t>
   </si>
   <si>
@@ -224,6 +249,9 @@
     <t xml:space="preserve">Arapaimidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0DneioOqyIlFnVhBuBrIma/IMAGENS-PEIXES/Astronotus%20ocellatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Carás, Marianas e Jacundás</t>
   </si>
   <si>
@@ -245,6 +273,9 @@
     <t xml:space="preserve">1.6</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAARmcMOm6sm8-Acgl-IGfs7a/IMAGENS-PEIXES/Astyanax%20bimaculatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarís e piabas</t>
   </si>
   <si>
@@ -284,6 +315,9 @@
     <t xml:space="preserve">17.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADonhaaofeK5X8Kae3TtmXea/IMAGENS-PEIXES/Auchenipterus%20nuchalis.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bagres pequenos</t>
   </si>
   <si>
@@ -293,6 +327,9 @@
     <t xml:space="preserve">Auchenipterus nuchalis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABLDIAcoryZmuZ1yNCkh_bca/IMAGENS-PEIXES/Baryancistrus%20longipinnis.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cascudos</t>
   </si>
   <si>
@@ -317,12 +354,18 @@
     <t xml:space="preserve">Sim. Categoria Criticamente Ameaçada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0GFEUZo6KUt88cpBB-Mt6a/IMAGENS-PEIXES/Baryancistrus%20niveatus.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baryancistrus niveatus</t>
   </si>
   <si>
     <t xml:space="preserve">0.52</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACtwxUVybx_x1SG4vrkhaMPa/IMAGENS-PEIXES/Boulengerella%20cuvieri.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bicudas</t>
   </si>
   <si>
@@ -335,12 +378,18 @@
     <t xml:space="preserve">Ctenoluciidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbp0j8KOAe-0Dcx77Dl8qXa/IMAGENS-PEIXES/Boulengerella%20maculata.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Boulengerella maculata</t>
   </si>
   <si>
     <t xml:space="preserve">31.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABxtnRUBNRs-HsFVLiNU4l5a/IMAGENS-PEIXES/Brachyplatystoma%20filamentosum.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Grandes bagres</t>
   </si>
   <si>
@@ -350,6 +399,9 @@
     <t xml:space="preserve">Brachiplatystoma filamentosum</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRINRZIMszHYmg8NyAsYz8a/IMAGENS-PEIXES/Brycon%20falcatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piabanha, Matrinxã e Voadores</t>
   </si>
   <si>
@@ -362,6 +414,9 @@
     <t xml:space="preserve">Bryconidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAPSlNPXSQ30fITaf8vx1JXa/IMAGENS-PEIXES/Brycon%20gouldingi.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piabanha, Matrinxã</t>
   </si>
   <si>
@@ -374,9 +429,15 @@
     <t xml:space="preserve">Sim. Categoria Ameaçada.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC071duLSb0-_L2O2-eUT3Ca/IMAGENS-PEIXES/Brycon%20nattereri.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brycon nattereri</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD-u046FFBIrJz1zPxAkqQpa/IMAGENS-PEIXES/Brycon%20pesu.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piaba-beiradeira</t>
   </si>
   <si>
@@ -386,18 +447,27 @@
     <t xml:space="preserve">Peixes e insetos</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABynjb7Q9NVMqxB15cfyAkGa/IMAGENS-PEIXES/Brycon%20polylepis.jpeg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Brycon polylepis</t>
   </si>
   <si>
     <t xml:space="preserve">22.4</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABQGtj9BtLvX47BWQhfyJLIa/IMAGENS-PEIXES/Bryconops%20alburnoides.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piquirão</t>
   </si>
   <si>
     <t xml:space="preserve">Bryconops alburnoides</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADoR_ce3yrPzy_32z5R6hH3a/IMAGENS-PEIXES/Caenotropus%20labyrinthicus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Durinho, Cabeça-dura</t>
   </si>
   <si>
@@ -434,6 +504,9 @@
     <t xml:space="preserve">27.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB4tOHEICbJt1GhIL7rYqbOa/IMAGENS-PEIXES/Chalceus%20epakros.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Rabo-vermelho</t>
   </si>
   <si>
@@ -449,6 +522,9 @@
     <t xml:space="preserve">0.07</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAc7NuWRD83n2qJk41k5nUFa/IMAGENS-PEIXES/Cichla%20kelberi.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tucunarés</t>
   </si>
   <si>
@@ -464,6 +540,9 @@
     <t xml:space="preserve">4.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADmlRY87ElsoG_zi8MlNEXna/IMAGENS-PEIXES/Cichla%20piquiti.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tucunaré-azul</t>
   </si>
   <si>
@@ -473,6 +552,9 @@
     <t xml:space="preserve">1.8</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADh0XjKYaVO0pwM15bArc7Na/IMAGENS-PEIXES/Cichlasoma%20araguaiense.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará, Caroço-de-manga</t>
   </si>
   <si>
@@ -482,6 +564,9 @@
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACP1SsUstm2e5RiAhp7j2SJa/IMAGENS-PEIXES/Colomesus%20tocantinensis.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Baiacu</t>
   </si>
   <si>
@@ -509,12 +594,18 @@
     <t xml:space="preserve">Crenicichla reticulata</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA1Q0VNXY0SRw7Q_7PtT2sUa/IMAGENS-PEIXES/Crenicichla%20sp.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mariana, Jacundá-açú</t>
   </si>
   <si>
     <t xml:space="preserve">Crenicichla sp</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACWNgC0aTPdqvBk5SXzuhDEa/IMAGENS-PEIXES/Curimata%20sp.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papa-terras e Curimatás</t>
   </si>
   <si>
@@ -542,6 +633,9 @@
     <t xml:space="preserve">0.49</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAUA1GJECppGC6HINIlA3Ha/IMAGENS-PEIXES/Electrophorus%20electricus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes elétricos</t>
   </si>
   <si>
@@ -554,6 +648,9 @@
     <t xml:space="preserve">Gymnotidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACkyGY3CEXx-4CIhmTQAotAa/IMAGENS-PEIXES/Exodon%20paradoxus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Miguelinho</t>
   </si>
   <si>
@@ -563,12 +660,18 @@
     <t xml:space="preserve">7.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA55G4HJRbTddiae2B7XSXaa/IMAGENS-PEIXES/Geophagus%20aff.%20altifrons.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corró, Acará-bicudo</t>
   </si>
   <si>
     <t xml:space="preserve">Geophagus aff. altifrons</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAtOK5Ptc3uYFHsuYqgYvHBa/IMAGENS-PEIXES/Gymnotus%20carapo.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tuvira</t>
   </si>
   <si>
@@ -578,6 +681,9 @@
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhfEEr6AJJYDAe5n5UFqOTa/IMAGENS-PEIXES/Hassar%20wilderi.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-serra</t>
   </si>
   <si>
@@ -590,6 +696,9 @@
     <t xml:space="preserve">Rios de água turva.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAlvks2c4jjlXtg5Ou-dx2Sa/IMAGENS-PEIXES/Hemiodus%20gracilis.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-rabo-vermelho</t>
   </si>
   <si>
@@ -602,24 +711,36 @@
     <t xml:space="preserve">Onívoro</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABw58Df5JydE9Uj2kiFAiPpa/IMAGENS-PEIXES/Hemiodus%20microlepis.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-escama-fina</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus microlepis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAzELcO5juwRnU3EktUUAEa/IMAGENS-PEIXES/Hemiodus%20ternetzi.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-vermelho</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus ternetzi</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9qK2DiaWrpZaU8ZUS5_KTa/IMAGENS-PEIXES/Hemiodus%20unimaculatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Voador-escama-grossa</t>
   </si>
   <si>
     <t xml:space="preserve">Hemiodus unimaculatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAl6cy3FbAk4WYhiiffYtxwa/IMAGENS-PEIXES/Hemisorubim%20platyrhinchus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jeripoca, Jurupoca</t>
   </si>
   <si>
@@ -629,6 +750,9 @@
     <t xml:space="preserve">2.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABNXyYb9vofSrUWUr5KLibIa/IMAGENS-PEIXES/Heros%20efasciatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-folha</t>
   </si>
   <si>
@@ -659,12 +783,18 @@
     <t xml:space="preserve">3.8</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABp3CedBUy4OSEl9JxbdGPoa/IMAGENS-PEIXES/Hoplias%20curupira.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trairão</t>
   </si>
   <si>
     <t xml:space="preserve">Hoplias curupira</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhzaYYlF0ydUA8q1dFmq21a/IMAGENS-PEIXES/Hydrolicus%20armatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-larga</t>
   </si>
   <si>
@@ -680,6 +810,9 @@
     <t xml:space="preserve">Hydrolycus tatauaia</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA2w-xCEz8uZiJMHhCMXPAta/IMAGENS-PEIXES/Hypophthalmus%20edentatus.jpeg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mapará</t>
   </si>
   <si>
@@ -695,6 +828,9 @@
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9zYTcEVV1RMxeHGRJSFB_a/IMAGENS-PEIXES/Hypselacara%20temporalis.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-roxo</t>
   </si>
   <si>
@@ -707,12 +843,18 @@
     <t xml:space="preserve">Leporacanthicus galaxias</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD62wlUv8p7Up8jfR0-RMJWa/IMAGENS-PEIXES/Leporinus%20affinis.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-flamengo</t>
   </si>
   <si>
     <t xml:space="preserve">Leporinus affinis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAcH2ZDtc1xtSkn1z4N7Bv5a/IMAGENS-PEIXES/Leporinus%20friderici.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-comum</t>
   </si>
   <si>
@@ -722,6 +864,9 @@
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADQLMxB8c4nG68-KZ5slotda/IMAGENS-PEIXES/Lycengraulis%20batesi.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinha-de-gato, Manjuba</t>
   </si>
   <si>
@@ -731,6 +876,9 @@
     <t xml:space="preserve">Engraulidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKO5i_wq6CdG2vx6XYiChXa/IMAGENS-PEIXES/Megaleporinus%20trifasciatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piau-cabeça-gorda</t>
   </si>
   <si>
@@ -740,18 +888,27 @@
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB65wsfEZ78mPPTgy82sTIaa/IMAGENS-PEIXES/Megalonema%20platycephalum.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-prata</t>
   </si>
   <si>
     <t xml:space="preserve">Megalonema platycephalum</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAFB12YoMHltIrCKz95J0N6a/IMAGENS-PEIXES/Mesonauta%20festivus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Acará-festivo</t>
   </si>
   <si>
     <t xml:space="preserve">Mesonauta festivus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACol5cuO4afZV7RYqwKX2jsa/IMAGENS-PEIXES/Moenkhausia%20dichroura.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lambarí-rabo-preto-e-branco</t>
   </si>
   <si>
@@ -773,6 +930,9 @@
     <t xml:space="preserve">Moenkhausia oligolepis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADgaJuypIzxVdydZpjI2jtGa/IMAGENS-PEIXES/Mylesinus%20paucisquamatus.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Peixes redondos</t>
   </si>
   <si>
@@ -794,6 +954,9 @@
     <t xml:space="preserve">Myleus setiger</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABwMrOzi4QxAQa8BICg3RqVa/IMAGENS-PEIXES/Myloplus%20schomburgkii.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pacú-ferrado</t>
   </si>
   <si>
@@ -824,6 +987,9 @@
     <t xml:space="preserve">4.3</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbBD0hys6_5gabZAipchOZa/IMAGENS-PEIXES/Osteoglossum%20bicirrhosum.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aruanã</t>
   </si>
   <si>
@@ -839,6 +1005,9 @@
     <t xml:space="preserve">Oxydoras niger</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAboGhsclsxzwgQ4Xfv6V21a/IMAGENS-PEIXES/Pachypops%20fourcroi.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corvinas</t>
   </si>
   <si>
@@ -851,6 +1020,9 @@
     <t xml:space="preserve">Scianidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAz9zpQHO1XZs3Ue-dzt3aGa/IMAGENS-PEIXES/Paratrygon%20aiereba.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Arraias</t>
   </si>
   <si>
@@ -869,6 +1041,9 @@
     <t xml:space="preserve">Endêmica da Amazônia.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAczBg7hoaaSyVKjtZtcKpma/IMAGENS-PEIXES/Pellona%20castelnaeana.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apapá, Sardinhão, Pescada-amarela</t>
   </si>
   <si>
@@ -881,12 +1056,18 @@
     <t xml:space="preserve">7.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0QdXEjfuSPWyQeSoNq8EMa/IMAGENS-PEIXES/Pelona%20flavipinnis.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pescada-branca</t>
   </si>
   <si>
     <t xml:space="preserve">Pellona flavipinnis</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB2ima_yFRZjCU42YqGXrpYa/IMAGENS-PEIXES/Phractocephalus%20hemioliopterus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pirarara</t>
   </si>
   <si>
@@ -896,6 +1077,9 @@
     <t xml:space="preserve">44.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC5hVnqUSCqy6Bbzm2dvCA7a/IMAGENS-PEIXES/Piaractus%20brachypomus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Caranha, Pirapitinga</t>
   </si>
   <si>
@@ -914,6 +1098,9 @@
     <t xml:space="preserve">Heptapteridae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABA_0DUjbptm_Y8-dWAKweYa/IMAGENS-PEIXES/Pimelodella%20gracilis.jpg?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Chorão-de-faixa</t>
   </si>
   <si>
@@ -929,18 +1116,27 @@
     <t xml:space="preserve">Canais de grandes rios.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACv-LWdkjxZsmwMea2Eys__a/IMAGENS-PEIXES/Pimelodus%20blochii.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-amarelo, Mandí-cabeça-de-ferro</t>
   </si>
   <si>
     <t xml:space="preserve">Pimelodus blochii</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACY0k_FbKogxn3ftpT7YRl0a/IMAGENS-PEIXES/Pimelodus%20ornatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mandí-guarú</t>
   </si>
   <si>
     <t xml:space="preserve">Pimelodus ornatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABRojeNV1nQfqy6OzqHXeQ6a/IMAGENS-PEIXES/Pinirampus%20pirinampu.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barbado</t>
   </si>
   <si>
@@ -950,6 +1146,9 @@
     <t xml:space="preserve">7.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADNkXb7GwwzyU0WI_ni5Mqaa/IMAGENS-PEIXES/Plagioscion%20squamosissimus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Corvina</t>
   </si>
   <si>
@@ -959,6 +1158,9 @@
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADGvFRM-iIO9acEevnuNroca/IMAGENS-PEIXES/Platydoras%20costatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bacu-rebeca, Cascudo-rebeca, Cascudo listrado</t>
   </si>
   <si>
@@ -980,6 +1182,9 @@
     <t xml:space="preserve">10.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADspctFW-A_QNbE0nUldNeFa/IMAGENS-PEIXES/Potamorrhapis%20guianensis.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bicuda-agulha</t>
   </si>
   <si>
@@ -1019,6 +1224,9 @@
     <t xml:space="preserve">14.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABZsUb_VECf65xXyriajtmXa/IMAGENS-PEIXES/Prochilodus%20nigricans.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papa-terra</t>
   </si>
   <si>
@@ -1028,6 +1236,9 @@
     <t xml:space="preserve">Prochilodontidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA3SRIAa6wQcCXALkJrxvnfa/IMAGENS-PEIXES/Psectrogaster%20amazonica.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Branquinha-cascuda</t>
   </si>
   <si>
@@ -1037,6 +1248,9 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACwwSBlnzM1v2ekxEI-FaLra/IMAGENS-PEIXES/Pseudoplatystoma%20fasciatum.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surubim, Cachara, Pintado</t>
   </si>
   <si>
@@ -1055,6 +1269,9 @@
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACaiPp9S0feRUmCdDA_A7Zaa/IMAGENS-PEIXES/Pterygoplichthys%20joselimaianus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cascudos grandes</t>
   </si>
   <si>
@@ -1067,6 +1284,9 @@
     <t xml:space="preserve">39.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABPZ1bQhiMhAJZs1YT0boMZa/IMAGENS-PEIXES/Pygocentrus%20nattereri.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha-vermelha</t>
   </si>
   <si>
@@ -1076,6 +1296,9 @@
     <t xml:space="preserve">3.9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADLn_WDDyK6XoRR5WjZIksxa/IMAGENS-PEIXES/Raphiodon%20vulpinus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cachorra-facão</t>
   </si>
   <si>
@@ -1085,6 +1308,9 @@
     <t xml:space="preserve">2.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRGuurdw1cxSE-f2xT6B6Ba/IMAGENS-PEIXES/Rhamdia%20quelen.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jundiá, Bagre, Lobó</t>
   </si>
   <si>
@@ -1106,6 +1332,9 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7PhtmbRbGoVHbqFCGziu5a/IMAGENS-PEIXES/Schizodon%20vittatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Schizodon vittatus</t>
   </si>
   <si>
@@ -1118,12 +1347,18 @@
     <t xml:space="preserve">2.6</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADbdgzn0LLaaqLU8CtMS_nka/IMAGENS-PEIXES/Serrasalmus%20eigenmanni.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha</t>
   </si>
   <si>
     <t xml:space="preserve">Serrasalmus eigenmanni</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD16Sofr2Ywi_8VYMLZakqKa/IMAGENS-PEIXES/Serrasalmus%20rhombeus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Piranha-preta</t>
   </si>
   <si>
@@ -1133,6 +1368,9 @@
     <t xml:space="preserve">41.5</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7_U-UcEFS-B3LXey8f1jDa/IMAGENS-PEIXES/Sorubim%20lima.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bico-de-pato, Jurupensém</t>
   </si>
   <si>
@@ -1142,6 +1380,9 @@
     <t xml:space="preserve">54.2</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA8oKMC9kuMAu1r7EbAUWr-a/IMAGENS-PEIXES/Sorubimichthys%20planiceps.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Surubim-chicote, Bargada</t>
   </si>
   <si>
@@ -1163,18 +1404,27 @@
     <t xml:space="preserve">Synbranchidae</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAClMTqEFS4cN3ZYUG6_pqbTa/IMAGENS-PEIXES/Tetragonopterus%20argenteus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pataquinha</t>
   </si>
   <si>
     <t xml:space="preserve">Tetragonopterus argenteus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABFCXn00hlsWSOmMWfF4Kaea/IMAGENS-PEIXES/Trachelyopterus%20galeatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Cangatí, Cachorro-do-padre</t>
   </si>
   <si>
     <t xml:space="preserve">Trachelyopterus galeatus</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA6WfuKsiegVhKjnd6Pqs_Ja/IMAGENS-PEIXES/Triportheus%20albus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinhas</t>
   </si>
   <si>
@@ -1187,6 +1437,9 @@
     <t xml:space="preserve">25.7</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABuSkYGBB2lWirYWccINtpqa/IMAGENS-PEIXES/Triportheus%20trifurcatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sardinha-papuda</t>
   </si>
   <si>
@@ -1194,6 +1447,9 @@
   </si>
   <si>
     <t xml:space="preserve">16.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACCG9643Nm047hX03iiH1Sya/IMAGENS-PEIXES/Zungaro%20zungaro.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Jaú</t>
@@ -1314,31 +1570,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:X118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A88" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H2" activeCellId="42" sqref="H4:H7 H11:H14 H19 H22 H25 H27 H29:H31 H35:I35 H39:I39 H41 H56 H66 H91:H92 H95 H100 H103 H108:H109 H115:H116 I3:I6 I11:I12 I14 I17 I30:I33 I43 I45:I46 I48:I49 I52 I54:I56 I60 I62 I64 I73 I78:I80 I86:I88 I94 I96:I97 I99 I101:I102 I104 I106:I107 I109 I114:I115 H2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T113" activeCellId="0" sqref="T113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.71"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1384,365 +1640,389 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="X1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>45</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S2" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="X2" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>37</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="I5" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="J5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O5" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>115</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L7" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>450</v>
@@ -1751,335 +2031,353 @@
         <v>200</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S10" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="X10" s="0" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" s="0" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S11" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>96</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>69</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" s="0" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S15" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="X15" s="0" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L16" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S16" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>34</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L17" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M17" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S17" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="X17" s="0" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>88</v>
@@ -2088,83 +2386,89 @@
         <v>6</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S18" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="X18" s="0" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S19" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="0" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>360</v>
@@ -2173,39 +2477,45 @@
         <v>200</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S20" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="X20" s="0" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>37</v>
@@ -2214,780 +2524,819 @@
         <v>1</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M21" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S21" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="X21" s="0" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>115</v>
+        <v>133</v>
       </c>
       <c r="L22" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M22" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S22" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="X22" s="0" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>37</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L23" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M23" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S23" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="X23" s="0" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M24" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S24" s="0" t="s">
+        <v>140</v>
+      </c>
+      <c r="X24" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M25" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S25" s="0" t="s">
+        <v>143</v>
+      </c>
+      <c r="X25" s="0" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>123</v>
+        <v>145</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S26" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="X26" s="0" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>124</v>
+        <v>147</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>126</v>
+        <v>149</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O27" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F28" s="0" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L28" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O28" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F29" s="0" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="I29" s="0" t="n">
         <v>280</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M29" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S29" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="X29" s="0" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="F30" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L30" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M30" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S30" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="X30" s="0" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F31" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>144</v>
+        <v>169</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L31" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S31" s="0" t="s">
+        <v>171</v>
+      </c>
+      <c r="X31" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F32" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>48</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L32" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S32" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="X32" s="0" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F33" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>22</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K33" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L33" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M33" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S33" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="X33" s="0" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>152</v>
+        <v>180</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>153</v>
+        <v>181</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="F34" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>10</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K34" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L34" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M34" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O34" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F35" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M35" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F36" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M36" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S36" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="X36" s="0" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>162</v>
+        <v>191</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F37" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L37" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M37" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O37" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S37" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="X37" s="0" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>164</v>
+        <v>194</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F38" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K38" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L38" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M38" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O38" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F39" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L39" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M39" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S39" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="X39" s="0" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F40" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>250</v>
@@ -2996,250 +3345,271 @@
         <v>20</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L40" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M40" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O40" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S40" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="X40" s="0" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>176</v>
+        <v>208</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>177</v>
+        <v>209</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F41" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L41" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M41" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O41" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S41" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="X41" s="0" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>180</v>
+        <v>213</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F42" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>28</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S42" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="X42" s="0" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="F43" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>76</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K43" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L43" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M43" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O43" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S43" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="X43" s="0" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>184</v>
+        <v>219</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>185</v>
+        <v>220</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F44" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J44" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K44" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L44" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M44" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O44" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S44" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="X44" s="0" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F45" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>20</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O45" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S45" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="X45" s="0" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F46" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>27</v>
@@ -3248,80 +3618,86 @@
         <v>161</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K46" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L46" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M46" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O46" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S46" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="X46" s="0" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L47" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M47" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O47" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S47" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="X47" s="0" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>196</v>
+        <v>235</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>197</v>
+        <v>236</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F48" s="0" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>27</v>
@@ -3330,985 +3706,1015 @@
         <v>259</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K48" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L48" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M48" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O48" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S48" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="X48" s="0" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F49" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>61</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L49" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M49" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O49" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S49" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="X49" s="0" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>202</v>
+        <v>243</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F50" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L50" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M50" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O50" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F51" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L51" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M51" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O51" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F52" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H52" s="0" t="n">
         <v>65</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L52" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M52" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O52" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S52" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="X52" s="0" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F53" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H53" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K53" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L53" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M53" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O53" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S53" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="X53" s="0" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F54" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54" s="0" t="n">
         <v>89</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K54" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L54" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M54" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O54" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F55" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>59</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L55" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M55" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O55" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S55" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="X55" s="0" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F56" s="0" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L56" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M56" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="O56" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="S56" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="X56" s="0" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F57" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K57" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L57" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M57" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O57" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>225</v>
+        <v>270</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F58" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58" s="0" t="n">
         <v>25</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M58" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S58" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="X58" s="0" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C59" s="0" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="D59" s="0" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="E59" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F59" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L59" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O59" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S59" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="X59" s="0" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F60" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60" s="0" t="n">
         <v>40</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K60" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L60" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M60" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O60" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S60" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="X60" s="0" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="F61" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L61" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M61" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O61" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S61" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="X61" s="0" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F62" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62" s="0" t="n">
         <v>45</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K62" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L62" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M62" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O62" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S62" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="X62" s="0" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F63" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K63" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L63" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M63" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O63" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S63" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="X63" s="0" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F64" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>97</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K64" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L64" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M64" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O64" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S64" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="X64" s="0" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F65" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K65" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L65" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M65" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O65" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>244</v>
+        <v>296</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>245</v>
+        <v>297</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F66" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>246</v>
+        <v>298</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M66" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>247</v>
+        <v>299</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>248</v>
+        <v>300</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F67" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K67" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L67" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O67" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S67" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="X67" s="0" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>251</v>
+        <v>304</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F68" s="0" t="s">
-        <v>253</v>
+        <v>306</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="H68" s="0" t="n">
         <v>22</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K68" s="0" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L68" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O68" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>250</v>
+        <v>303</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>255</v>
+        <v>308</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F69" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K69" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L69" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S69" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="X69" s="0" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>256</v>
+        <v>310</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>257</v>
+        <v>311</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F70" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70" s="0" t="n">
         <v>42</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K70" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L70" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M70" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O70" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>258</v>
+        <v>312</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>259</v>
+        <v>313</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F71" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K71" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L71" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M71" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>260</v>
+        <v>314</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F72" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72" s="0" t="n">
         <v>30</v>
@@ -4317,80 +4723,86 @@
         <v>1</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K72" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>263</v>
+        <v>317</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>264</v>
+        <v>318</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="F73" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H73" s="0" t="n">
         <v>60</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>265</v>
+        <v>319</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K73" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L73" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M73" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="S73" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="X73" s="0" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>266</v>
+        <v>321</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>267</v>
+        <v>322</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>268</v>
+        <v>323</v>
       </c>
       <c r="F74" s="0" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H74" s="0" t="n">
         <v>90</v>
@@ -4399,42 +4811,39 @@
         <v>6</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K74" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L74" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M74" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O74" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>269</v>
+        <v>324</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>270</v>
+        <v>325</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F75" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75" s="0" t="n">
         <v>120</v>
@@ -4443,68 +4852,77 @@
         <v>23</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K75" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L75" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M75" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S75" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="X75" s="0" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="F76" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="O76" s="0" t="s">
-        <v>23</v>
+      <c r="S76" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="X76" s="0" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>277</v>
+        <v>334</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="F77" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>279</v>
+        <v>336</v>
       </c>
       <c r="H77" s="0" t="n">
         <v>80</v>
@@ -4513,174 +4931,186 @@
         <v>14</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>280</v>
+        <v>337</v>
       </c>
       <c r="K77" s="0" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="L77" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M77" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O77" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S77" s="0" t="s">
+        <v>338</v>
+      </c>
+      <c r="X77" s="0" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>281</v>
+        <v>339</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>282</v>
+        <v>340</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="F78" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K78" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L78" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M78" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O78" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S78" s="0" t="s">
+        <v>343</v>
+      </c>
+      <c r="X78" s="0" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>286</v>
+        <v>345</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="F79" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K79" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L79" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M79" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O79" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S79" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="X79" s="0" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>287</v>
+        <v>347</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F80" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80" s="0" t="n">
         <v>135</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K80" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L80" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M80" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O80" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S80" s="0" t="s">
+        <v>350</v>
+      </c>
+      <c r="X80" s="0" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>290</v>
+        <v>351</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>291</v>
+        <v>352</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F81" s="0" t="s">
-        <v>292</v>
+        <v>353</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81" s="0" t="n">
         <v>88</v>
@@ -4689,203 +5119,209 @@
         <v>25</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K81" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L81" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M81" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O81" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>293</v>
+        <v>354</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>294</v>
+        <v>355</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F82" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G82" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M82" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S82" s="0" t="s">
+        <v>357</v>
+      </c>
+      <c r="X82" s="0" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>296</v>
+        <v>358</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>297</v>
+        <v>359</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F83" s="0" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H83" s="0" t="n">
         <v>20</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K83" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L83" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O83" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>298</v>
+        <v>360</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>299</v>
+        <v>361</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F84" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>300</v>
+        <v>362</v>
       </c>
       <c r="H84" s="0" t="n">
         <v>39</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K84" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L84" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M84" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O84" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S84" s="0" t="s">
+        <v>363</v>
+      </c>
+      <c r="X84" s="0" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>302</v>
+        <v>365</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F85" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="H85" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J85" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K85" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L85" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M85" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O85" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S85" s="0" t="s">
+        <v>366</v>
+      </c>
+      <c r="X85" s="0" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>303</v>
+        <v>367</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>304</v>
+        <v>368</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F86" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>35</v>
@@ -4894,493 +5330,520 @@
         <v>426</v>
       </c>
       <c r="J86" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K86" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L86" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M86" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O86" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S86" s="0" t="s">
+        <v>369</v>
+      </c>
+      <c r="X86" s="0" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>306</v>
+        <v>371</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F87" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87" s="0" t="n">
         <v>120</v>
       </c>
       <c r="I87" s="0" t="s">
-        <v>307</v>
+        <v>372</v>
       </c>
       <c r="J87" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K87" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L87" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M87" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O87" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S87" s="0" t="s">
+        <v>373</v>
+      </c>
+      <c r="X87" s="0" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="C88" s="0" t="s">
-        <v>308</v>
+        <v>374</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>309</v>
+        <v>375</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="F88" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I88" s="0" t="s">
-        <v>310</v>
+        <v>376</v>
       </c>
       <c r="J88" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K88" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L88" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M88" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O88" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S88" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="X88" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>312</v>
+        <v>379</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F89" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89" s="0" t="n">
         <v>30</v>
       </c>
       <c r="J89" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K89" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L89" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M89" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O89" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S89" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="X89" s="0" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>313</v>
+        <v>380</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>314</v>
+        <v>381</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F90" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H90" s="0" t="n">
         <v>80</v>
       </c>
       <c r="J90" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K90" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L90" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M90" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>315</v>
+        <v>382</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>316</v>
+        <v>383</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F91" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H91" s="0" t="s">
-        <v>317</v>
+        <v>384</v>
       </c>
       <c r="J91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M91" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S91" s="0" t="s">
+        <v>385</v>
+      </c>
+      <c r="X91" s="0" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>318</v>
+        <v>386</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>319</v>
+        <v>387</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>320</v>
+        <v>388</v>
       </c>
       <c r="F92" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="H92" s="0" t="s">
-        <v>322</v>
+        <v>390</v>
       </c>
       <c r="J92" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K92" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L92" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M92" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O92" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>323</v>
+        <v>391</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>324</v>
+        <v>392</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="F93" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H93" s="0" t="n">
         <v>45</v>
       </c>
       <c r="J93" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K93" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L93" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M93" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>275</v>
+        <v>332</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>325</v>
+        <v>393</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>326</v>
+        <v>394</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>278</v>
+        <v>335</v>
       </c>
       <c r="F94" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H94" s="0" t="n">
         <v>35</v>
       </c>
       <c r="I94" s="0" t="s">
-        <v>327</v>
+        <v>395</v>
       </c>
       <c r="J94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M94" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>328</v>
+        <v>396</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>329</v>
+        <v>397</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>283</v>
+        <v>341</v>
       </c>
       <c r="F95" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H95" s="0" t="s">
-        <v>330</v>
+        <v>398</v>
       </c>
       <c r="J95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M95" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S95" s="0" t="s">
+        <v>399</v>
+      </c>
+      <c r="X95" s="0" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>331</v>
+        <v>400</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>332</v>
+        <v>401</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="F96" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H96" s="0" t="n">
         <v>45</v>
       </c>
       <c r="I96" s="0" t="s">
-        <v>183</v>
+        <v>217</v>
       </c>
       <c r="J96" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K96" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L96" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M96" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O96" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S96" s="0" t="s">
+        <v>403</v>
+      </c>
+      <c r="X96" s="0" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>334</v>
+        <v>404</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>335</v>
+        <v>405</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>166</v>
+        <v>196</v>
       </c>
       <c r="F97" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H97" s="0" t="n">
         <v>19</v>
       </c>
       <c r="I97" s="0" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="J97" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K97" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L97" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M97" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O97" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S97" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="X97" s="0" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>337</v>
+        <v>408</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>338</v>
+        <v>409</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F98" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98" s="0" t="n">
         <v>105</v>
@@ -5389,382 +5852,397 @@
         <v>70</v>
       </c>
       <c r="J98" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K98" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L98" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M98" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O98" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>339</v>
+        <v>410</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>340</v>
+        <v>411</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="F99" s="0" t="s">
-        <v>341</v>
+        <v>412</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H99" s="0" t="n">
         <v>70</v>
       </c>
       <c r="I99" s="0" t="s">
-        <v>342</v>
+        <v>413</v>
       </c>
       <c r="J99" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K99" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L99" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M99" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S99" s="0" t="s">
+        <v>414</v>
+      </c>
+      <c r="X99" s="0" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>343</v>
+        <v>415</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>344</v>
+        <v>416</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>345</v>
+        <v>417</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F100" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H100" s="0" t="s">
-        <v>346</v>
+        <v>418</v>
       </c>
       <c r="J100" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K100" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L100" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M100" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O100" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S100" s="0" t="s">
+        <v>419</v>
+      </c>
+      <c r="X100" s="0" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C101" s="0" t="s">
-        <v>347</v>
+        <v>420</v>
       </c>
       <c r="D101" s="0" t="s">
-        <v>348</v>
+        <v>421</v>
       </c>
       <c r="E101" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F101" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H101" s="0" t="n">
         <v>50</v>
       </c>
       <c r="I101" s="0" t="s">
-        <v>349</v>
+        <v>422</v>
       </c>
       <c r="J101" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K101" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L101" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M101" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O101" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S101" s="0" t="s">
+        <v>423</v>
+      </c>
+      <c r="X101" s="0" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102" s="0" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="D102" s="0" t="s">
-        <v>351</v>
+        <v>425</v>
       </c>
       <c r="E102" s="0" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F102" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G102" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102" s="0" t="n">
         <v>80</v>
       </c>
       <c r="I102" s="0" t="s">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="J102" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K102" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L102" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M102" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O102" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S102" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="X102" s="0" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C103" s="0" t="s">
-        <v>353</v>
+        <v>428</v>
       </c>
       <c r="D103" s="0" t="s">
-        <v>354</v>
+        <v>429</v>
       </c>
       <c r="E103" s="0" t="s">
-        <v>295</v>
+        <v>356</v>
       </c>
       <c r="F103" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>355</v>
+        <v>430</v>
       </c>
       <c r="H103" s="0" t="s">
-        <v>356</v>
+        <v>431</v>
       </c>
       <c r="I103" s="0" t="n">
         <v>4</v>
       </c>
       <c r="J103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L103" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M103" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O103" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>262</v>
+        <v>316</v>
       </c>
       <c r="C104" s="0" t="s">
-        <v>357</v>
+        <v>432</v>
       </c>
       <c r="D104" s="0" t="s">
-        <v>358</v>
+        <v>433</v>
       </c>
       <c r="E104" s="0" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F104" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" s="0" t="s">
-        <v>254</v>
+        <v>307</v>
       </c>
       <c r="H104" s="0" t="n">
         <v>45</v>
       </c>
       <c r="I104" s="0" t="s">
-        <v>359</v>
+        <v>434</v>
       </c>
       <c r="J104" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K104" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L104" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M104" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O104" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S104" s="0" t="s">
+        <v>435</v>
+      </c>
+      <c r="X104" s="0" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C105" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D105" s="0" t="s">
-        <v>360</v>
+        <v>436</v>
       </c>
       <c r="E105" s="0" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F105" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H105" s="0" t="n">
         <v>35</v>
       </c>
       <c r="J105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L105" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M105" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O105" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>163</v>
+        <v>193</v>
       </c>
       <c r="C106" s="0" t="s">
-        <v>361</v>
+        <v>437</v>
       </c>
       <c r="D106" s="0" t="s">
-        <v>362</v>
+        <v>438</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>333</v>
+        <v>402</v>
       </c>
       <c r="F106" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G106" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H106" s="0" t="n">
         <v>54</v>
       </c>
       <c r="I106" s="0" t="s">
-        <v>363</v>
+        <v>439</v>
       </c>
       <c r="J106" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K106" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L106" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M106" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S106" s="0" t="s">
+        <v>440</v>
+      </c>
+      <c r="X106" s="0" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C107" s="0" t="s">
-        <v>364</v>
+        <v>441</v>
       </c>
       <c r="D107" s="0" t="s">
-        <v>365</v>
+        <v>442</v>
       </c>
       <c r="E107" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F107" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H107" s="0" t="n">
         <v>35</v>
@@ -5773,294 +6251,303 @@
         <v>394</v>
       </c>
       <c r="J107" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K107" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L107" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M107" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O107" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S107" s="0" t="s">
+        <v>443</v>
+      </c>
+      <c r="X107" s="0" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>249</v>
+        <v>302</v>
       </c>
       <c r="C108" s="0" t="s">
-        <v>366</v>
+        <v>444</v>
       </c>
       <c r="D108" s="0" t="s">
-        <v>367</v>
+        <v>445</v>
       </c>
       <c r="E108" s="0" t="s">
-        <v>252</v>
+        <v>305</v>
       </c>
       <c r="F108" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G108" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H108" s="0" t="s">
-        <v>368</v>
+        <v>446</v>
       </c>
       <c r="I108" s="0" t="n">
         <v>3</v>
       </c>
       <c r="J108" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L108" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M108" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O108" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S108" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="X108" s="0" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C109" s="0" t="s">
-        <v>369</v>
+        <v>448</v>
       </c>
       <c r="D109" s="0" t="s">
-        <v>370</v>
+        <v>449</v>
       </c>
       <c r="E109" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F109" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H109" s="0" t="s">
-        <v>371</v>
+        <v>450</v>
       </c>
       <c r="I109" s="0" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="J109" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K109" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L109" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M109" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O109" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S109" s="0" t="s">
+        <v>451</v>
+      </c>
+      <c r="X109" s="0" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C110" s="0" t="s">
-        <v>372</v>
+        <v>452</v>
       </c>
       <c r="D110" s="0" t="s">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="E110" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F110" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H110" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J110" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K110" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L110" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M110" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O110" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="C111" s="0" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="D111" s="0" t="s">
-        <v>375</v>
+        <v>455</v>
       </c>
       <c r="E111" s="0" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="F111" s="0" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H111" s="0" t="n">
         <v>15</v>
       </c>
       <c r="J111" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K111" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L111" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M111" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O111" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C112" s="0" t="s">
-        <v>376</v>
+        <v>456</v>
       </c>
       <c r="D112" s="0" t="s">
-        <v>377</v>
+        <v>457</v>
       </c>
       <c r="E112" s="0" t="s">
-        <v>378</v>
+        <v>458</v>
       </c>
       <c r="F112" s="0" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="G112" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="H112" s="0" t="n">
         <v>150</v>
       </c>
       <c r="J112" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K112" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L112" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M112" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O112" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S112" s="0" t="s">
+        <v>459</v>
+      </c>
+      <c r="X112" s="0" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="C113" s="0" t="s">
-        <v>379</v>
+        <v>460</v>
       </c>
       <c r="D113" s="0" t="s">
-        <v>380</v>
+        <v>461</v>
       </c>
       <c r="E113" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="F113" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H113" s="0" t="n">
         <v>12</v>
       </c>
       <c r="J113" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K113" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L113" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M113" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O113" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S113" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="X113" s="0" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="C114" s="0" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="D114" s="0" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="E114" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F114" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G114" s="0" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H114" s="0" t="n">
         <v>30</v>
@@ -6069,127 +6556,136 @@
         <v>675</v>
       </c>
       <c r="J114" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K114" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L114" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M114" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O114" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S114" s="0" t="s">
+        <v>465</v>
+      </c>
+      <c r="X114" s="0" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="C115" s="0" t="s">
-        <v>384</v>
+        <v>467</v>
       </c>
       <c r="D115" s="0" t="s">
-        <v>385</v>
+        <v>468</v>
       </c>
       <c r="E115" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F115" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H115" s="0" t="s">
-        <v>386</v>
+        <v>469</v>
       </c>
       <c r="I115" s="0" t="s">
-        <v>336</v>
+        <v>406</v>
       </c>
       <c r="J115" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K115" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L115" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M115" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O115" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S115" s="0" t="s">
+        <v>470</v>
+      </c>
+      <c r="X115" s="0" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>383</v>
+        <v>466</v>
       </c>
       <c r="C116" s="0" t="s">
-        <v>387</v>
+        <v>471</v>
       </c>
       <c r="D116" s="0" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
       <c r="E116" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F116" s="0" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G116" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H116" s="0" t="s">
-        <v>389</v>
+        <v>473</v>
       </c>
       <c r="J116" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="K116" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L116" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M116" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O116" s="0" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S116" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="X116" s="0" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="C117" s="0" t="s">
-        <v>390</v>
+        <v>475</v>
       </c>
       <c r="D117" s="0" t="s">
-        <v>391</v>
+        <v>476</v>
       </c>
       <c r="E117" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F117" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H117" s="0" t="n">
         <v>170</v>
@@ -6198,36 +6694,30 @@
         <v>50</v>
       </c>
       <c r="J117" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K117" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L117" s="0" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M117" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="O117" s="0" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>392</v>
+        <v>477</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C118" s="0" t="s">
-        <v>393</v>
+        <v>478</v>
       </c>
       <c r="D118" s="0" t="s">
-        <v>394</v>
-      </c>
-      <c r="O118" s="0" t="s">
-        <v>23</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -6251,10 +6741,10 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="42" sqref="H4:H7 H11:H14 H19 H22 H25 H27 H29:H31 H35:I35 H39:I39 H41 H56 H66 H91:H92 H95 H100 H103 H108:H109 H115:H116 I3:I6 I11:I12 I14 I17 I30:I33 I43 I45:I46 I48:I49 I52 I54:I56 I60 I62 I64 I73 I78:I80 I86:I88 I94 I96:I97 I99 I101:I102 I104 I106:I107 I109 I114:I115 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/src/utils/seed/planilha-dados3.xlsx
+++ b/src/utils/seed/planilha-dados3.xlsx
@@ -12,7 +12,8 @@
     <sheet name="Plan3" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$O$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Plan2!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1442" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="480">
   <si>
     <t xml:space="preserve">Grande Grupo</t>
   </si>
@@ -71,7 +72,7 @@
     <t xml:space="preserve">Foto</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACeuUVRbAKuiFQ1f_Rdl0BNa/IMAGENS-PEIXES/Acestrorhynchus%20falcatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACeuUVRbAKuiFQ1f_Rdl0BNa/IMAGENS-PEIXES/Acestrorhynchus%20falcatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Peixes com escamas</t>
@@ -98,7 +99,7 @@
     <t xml:space="preserve">Não</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHF0CqNrSimEp_BtrrIP_ka/IMAGENS-PEIXES/Acestrorhynchus%20microlepis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHF0CqNrSimEp_BtrrIP_ka/IMAGENS-PEIXES/Acestrorhynchus%20microlepis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Acestrorhynchus microlepis</t>
@@ -107,7 +108,7 @@
     <t xml:space="preserve">0.23</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHwXZoWko3om7Oo9wggbbha/IMAGENS-PEIXES/Ageneiosus%20inermis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHwXZoWko3om7Oo9wggbbha/IMAGENS-PEIXES/Ageneiosus%20inermis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Peixes de couro</t>
@@ -137,7 +138,7 @@
     <t xml:space="preserve">Sim</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAJL7U-xOUtuDbJauMW6ZJZa/IMAGENS-PEIXES/Ageneiosus%20ucayalensis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAJL7U-xOUtuDbJauMW6ZJZa/IMAGENS-PEIXES/Ageneiosus%20ucayalensis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Fidalgo, Mandubé-de-ferrão</t>
@@ -164,7 +165,7 @@
     <t xml:space="preserve">26.8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAIw7UAB1abn6rnlIJFQtUEa/IMAGENS-PEIXES/Aguarunichthys%20tocantinsensis.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAIw7UAB1abn6rnlIJFQtUEa/IMAGENS-PEIXES/Aguarunichthys%20tocantinsensis.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Mandís</t>
@@ -194,7 +195,7 @@
     <t xml:space="preserve">Sim. Categoria Vulnerável.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKeQkaCqORp82Xpulp-TIJa/IMAGENS-PEIXES/Anostomoides%20laticeps.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKeQkaCqORp82Xpulp-TIJa/IMAGENS-PEIXES/Anostomoides%20laticeps.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piaus</t>
@@ -212,7 +213,7 @@
     <t xml:space="preserve">Material vegetal</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAALWBpxgL5ZJXm2AVmCryg2a/IMAGENS-PEIXES/Apteronotus%20camposdapazi.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAALWBpxgL5ZJXm2AVmCryg2a/IMAGENS-PEIXES/Apteronotus%20camposdapazi.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Outros</t>
@@ -233,7 +234,7 @@
     <t xml:space="preserve">Lagoas e lagos de água parada.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACka_hUaKbde4E4xBHACNIka/IMAGENS-PEIXES/Arapaima%20gigas.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACka_hUaKbde4E4xBHACNIka/IMAGENS-PEIXES/Arapaima%20gigas.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Peixes grandes</t>
@@ -248,7 +249,7 @@
     <t xml:space="preserve">Arapaimidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0DneioOqyIlFnVhBuBrIma/IMAGENS-PEIXES/Astronotus%20ocellatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0DneioOqyIlFnVhBuBrIma/IMAGENS-PEIXES/Astronotus%20ocellatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Carás, Marianas e Jacundás</t>
@@ -272,7 +273,7 @@
     <t xml:space="preserve">1.6</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAARmcMOm6sm8-Acgl-IGfs7a/IMAGENS-PEIXES/Astyanax%20bimaculatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAARmcMOm6sm8-Acgl-IGfs7a/IMAGENS-PEIXES/Astyanax%20bimaculatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Lambarís e piabas</t>
@@ -314,7 +315,7 @@
     <t xml:space="preserve">17.1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADonhaaofeK5X8Kae3TtmXea/IMAGENS-PEIXES/Auchenipterus%20nuchalis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADonhaaofeK5X8Kae3TtmXea/IMAGENS-PEIXES/Auchenipterus%20nuchalis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Bagres pequenos</t>
@@ -326,7 +327,7 @@
     <t xml:space="preserve">Auchenipterus nuchalis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABLDIAcoryZmuZ1yNCkh_bca/IMAGENS-PEIXES/Baryancistrus%20longipinnis.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABLDIAcoryZmuZ1yNCkh_bca/IMAGENS-PEIXES/Baryancistrus%20longipinnis.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Cascudos</t>
@@ -353,7 +354,7 @@
     <t xml:space="preserve">Sim. Categoria Criticamente Ameaçada.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0GFEUZo6KUt88cpBB-Mt6a/IMAGENS-PEIXES/Baryancistrus%20niveatus.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0GFEUZo6KUt88cpBB-Mt6a/IMAGENS-PEIXES/Baryancistrus%20niveatus.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Baryancistrus niveatus</t>
@@ -362,7 +363,7 @@
     <t xml:space="preserve">0.52</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACtwxUVybx_x1SG4vrkhaMPa/IMAGENS-PEIXES/Boulengerella%20cuvieri.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACtwxUVybx_x1SG4vrkhaMPa/IMAGENS-PEIXES/Boulengerella%20cuvieri.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Bicudas</t>
@@ -377,7 +378,7 @@
     <t xml:space="preserve">Ctenoluciidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbp0j8KOAe-0Dcx77Dl8qXa/IMAGENS-PEIXES/Boulengerella%20maculata.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbp0j8KOAe-0Dcx77Dl8qXa/IMAGENS-PEIXES/Boulengerella%20maculata.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Boulengerella maculata</t>
@@ -386,7 +387,7 @@
     <t xml:space="preserve">31.9</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABxtnRUBNRs-HsFVLiNU4l5a/IMAGENS-PEIXES/Brachyplatystoma%20filamentosum.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABxtnRUBNRs-HsFVLiNU4l5a/IMAGENS-PEIXES/Brachyplatystoma%20filamentosum.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Grandes bagres</t>
@@ -398,7 +399,7 @@
     <t xml:space="preserve">Brachiplatystoma filamentosum</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRINRZIMszHYmg8NyAsYz8a/IMAGENS-PEIXES/Brycon%20falcatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRINRZIMszHYmg8NyAsYz8a/IMAGENS-PEIXES/Brycon%20falcatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piabanha, Matrinxã e Voadores</t>
@@ -413,7 +414,7 @@
     <t xml:space="preserve">Bryconidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAPSlNPXSQ30fITaf8vx1JXa/IMAGENS-PEIXES/Brycon%20gouldingi.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAPSlNPXSQ30fITaf8vx1JXa/IMAGENS-PEIXES/Brycon%20gouldingi.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piabanha, Matrinxã</t>
@@ -428,13 +429,13 @@
     <t xml:space="preserve">Sim. Categoria Ameaçada.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC071duLSb0-_L2O2-eUT3Ca/IMAGENS-PEIXES/Brycon%20nattereri.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC071duLSb0-_L2O2-eUT3Ca/IMAGENS-PEIXES/Brycon%20nattereri.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Brycon nattereri</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD-u046FFBIrJz1zPxAkqQpa/IMAGENS-PEIXES/Brycon%20pesu.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD-u046FFBIrJz1zPxAkqQpa/IMAGENS-PEIXES/Brycon%20pesu.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piaba-beiradeira</t>
@@ -446,7 +447,7 @@
     <t xml:space="preserve">Peixes e insetos</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABynjb7Q9NVMqxB15cfyAkGa/IMAGENS-PEIXES/Brycon%20polylepis.jpeg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABynjb7Q9NVMqxB15cfyAkGa/IMAGENS-PEIXES/Brycon%20polylepis.jpeg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Brycon polylepis</t>
@@ -455,7 +456,7 @@
     <t xml:space="preserve">22.4</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABQGtj9BtLvX47BWQhfyJLIa/IMAGENS-PEIXES/Bryconops%20alburnoides.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABQGtj9BtLvX47BWQhfyJLIa/IMAGENS-PEIXES/Bryconops%20alburnoides.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piquirão</t>
@@ -464,7 +465,7 @@
     <t xml:space="preserve">Bryconops alburnoides</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADoR_ce3yrPzy_32z5R6hH3a/IMAGENS-PEIXES/Caenotropus%20labyrinthicus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADoR_ce3yrPzy_32z5R6hH3a/IMAGENS-PEIXES/Caenotropus%20labyrinthicus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Durinho, Cabeça-dura</t>
@@ -503,7 +504,7 @@
     <t xml:space="preserve">27.3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB4tOHEICbJt1GhIL7rYqbOa/IMAGENS-PEIXES/Chalceus%20epakros.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB4tOHEICbJt1GhIL7rYqbOa/IMAGENS-PEIXES/Chalceus%20epakros.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Rabo-vermelho</t>
@@ -521,7 +522,7 @@
     <t xml:space="preserve">0.07</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAc7NuWRD83n2qJk41k5nUFa/IMAGENS-PEIXES/Cichla%20kelberi.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAc7NuWRD83n2qJk41k5nUFa/IMAGENS-PEIXES/Cichla%20kelberi.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Tucunarés</t>
@@ -539,7 +540,7 @@
     <t xml:space="preserve">4.9</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADmlRY87ElsoG_zi8MlNEXna/IMAGENS-PEIXES/Cichla%20piquiti.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADmlRY87ElsoG_zi8MlNEXna/IMAGENS-PEIXES/Cichla%20piquiti.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Tucunaré-azul</t>
@@ -551,7 +552,7 @@
     <t xml:space="preserve">1.8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADh0XjKYaVO0pwM15bArc7Na/IMAGENS-PEIXES/Cichlasoma%20araguaiense.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADh0XjKYaVO0pwM15bArc7Na/IMAGENS-PEIXES/Cichlasoma%20araguaiense.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Acará, Caroço-de-manga</t>
@@ -563,7 +564,7 @@
     <t xml:space="preserve">0.3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACP1SsUstm2e5RiAhp7j2SJa/IMAGENS-PEIXES/Colomesus%20tocantinensis.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACP1SsUstm2e5RiAhp7j2SJa/IMAGENS-PEIXES/Colomesus%20tocantinensis.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Baiacu</t>
@@ -593,7 +594,7 @@
     <t xml:space="preserve">Crenicichla reticulata</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA1Q0VNXY0SRw7Q_7PtT2sUa/IMAGENS-PEIXES/Crenicichla%20sp.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA1Q0VNXY0SRw7Q_7PtT2sUa/IMAGENS-PEIXES/Crenicichla%20sp.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Mariana, Jacundá-açú</t>
@@ -602,7 +603,7 @@
     <t xml:space="preserve">Crenicichla sp</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACWNgC0aTPdqvBk5SXzuhDEa/IMAGENS-PEIXES/Curimata%20sp.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACWNgC0aTPdqvBk5SXzuhDEa/IMAGENS-PEIXES/Curimata%20sp.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Papa-terras e Curimatás</t>
@@ -632,7 +633,7 @@
     <t xml:space="preserve">0.49</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAUA1GJECppGC6HINIlA3Ha/IMAGENS-PEIXES/Electrophorus%20electricus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAUA1GJECppGC6HINIlA3Ha/IMAGENS-PEIXES/Electrophorus%20electricus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Peixes elétricos</t>
@@ -647,7 +648,7 @@
     <t xml:space="preserve">Gymnotidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACkyGY3CEXx-4CIhmTQAotAa/IMAGENS-PEIXES/Exodon%20paradoxus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACkyGY3CEXx-4CIhmTQAotAa/IMAGENS-PEIXES/Exodon%20paradoxus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Miguelinho</t>
@@ -659,7 +660,7 @@
     <t xml:space="preserve">7.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA55G4HJRbTddiae2B7XSXaa/IMAGENS-PEIXES/Geophagus%20aff.%20altifrons.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA55G4HJRbTddiae2B7XSXaa/IMAGENS-PEIXES/Geophagus%20aff.%20altifrons.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Corró, Acará-bicudo</t>
@@ -668,7 +669,7 @@
     <t xml:space="preserve">Geophagus aff. altifrons</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAtOK5Ptc3uYFHsuYqgYvHBa/IMAGENS-PEIXES/Gymnotus%20carapo.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAtOK5Ptc3uYFHsuYqgYvHBa/IMAGENS-PEIXES/Gymnotus%20carapo.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Tuvira</t>
@@ -680,7 +681,7 @@
     <t xml:space="preserve">1.2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhfEEr6AJJYDAe5n5UFqOTa/IMAGENS-PEIXES/Hassar%20wilderi.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhfEEr6AJJYDAe5n5UFqOTa/IMAGENS-PEIXES/Hassar%20wilderi.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Mandí-serra</t>
@@ -695,7 +696,7 @@
     <t xml:space="preserve">Rios de água turva.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAlvks2c4jjlXtg5Ou-dx2Sa/IMAGENS-PEIXES/Hemiodus%20gracilis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAlvks2c4jjlXtg5Ou-dx2Sa/IMAGENS-PEIXES/Hemiodus%20gracilis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Voador-rabo-vermelho</t>
@@ -710,7 +711,7 @@
     <t xml:space="preserve">Onívoro</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABw58Df5JydE9Uj2kiFAiPpa/IMAGENS-PEIXES/Hemiodus%20microlepis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABw58Df5JydE9Uj2kiFAiPpa/IMAGENS-PEIXES/Hemiodus%20microlepis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Voador-escama-fina</t>
@@ -719,7 +720,7 @@
     <t xml:space="preserve">Hemiodus microlepis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAzELcO5juwRnU3EktUUAEa/IMAGENS-PEIXES/Hemiodus%20ternetzi.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAzELcO5juwRnU3EktUUAEa/IMAGENS-PEIXES/Hemiodus%20ternetzi.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Voador-vermelho</t>
@@ -728,7 +729,7 @@
     <t xml:space="preserve">Hemiodus ternetzi</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9qK2DiaWrpZaU8ZUS5_KTa/IMAGENS-PEIXES/Hemiodus%20unimaculatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9qK2DiaWrpZaU8ZUS5_KTa/IMAGENS-PEIXES/Hemiodus%20unimaculatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Voador-escama-grossa</t>
@@ -737,7 +738,7 @@
     <t xml:space="preserve">Hemiodus unimaculatus</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAl6cy3FbAk4WYhiiffYtxwa/IMAGENS-PEIXES/Hemisorubim%20platyrhinchus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAl6cy3FbAk4WYhiiffYtxwa/IMAGENS-PEIXES/Hemisorubim%20platyrhinchus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Jeripoca, Jurupoca</t>
@@ -749,7 +750,7 @@
     <t xml:space="preserve">2.7</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABNXyYb9vofSrUWUr5KLibIa/IMAGENS-PEIXES/Heros%20efasciatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABNXyYb9vofSrUWUr5KLibIa/IMAGENS-PEIXES/Heros%20efasciatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Acará-folha</t>
@@ -782,7 +783,7 @@
     <t xml:space="preserve">3.8</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABp3CedBUy4OSEl9JxbdGPoa/IMAGENS-PEIXES/Hoplias%20curupira.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABp3CedBUy4OSEl9JxbdGPoa/IMAGENS-PEIXES/Hoplias%20curupira.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Trairão</t>
@@ -791,7 +792,7 @@
     <t xml:space="preserve">Hoplias curupira</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhzaYYlF0ydUA8q1dFmq21a/IMAGENS-PEIXES/Hydrolicus%20armatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhzaYYlF0ydUA8q1dFmq21a/IMAGENS-PEIXES/Hydrolicus%20armatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Cachorra-larga</t>
@@ -809,7 +810,7 @@
     <t xml:space="preserve">Hydrolycus tatauaia</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA2w-xCEz8uZiJMHhCMXPAta/IMAGENS-PEIXES/Hypophthalmus%20edentatus.jpeg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA2w-xCEz8uZiJMHhCMXPAta/IMAGENS-PEIXES/Hypophthalmus%20edentatus.jpeg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Mapará</t>
@@ -827,7 +828,7 @@
     <t xml:space="preserve">1.3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9zYTcEVV1RMxeHGRJSFB_a/IMAGENS-PEIXES/Hypselacara%20temporalis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9zYTcEVV1RMxeHGRJSFB_a/IMAGENS-PEIXES/Hypselacara%20temporalis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Acará-roxo</t>
@@ -842,7 +843,7 @@
     <t xml:space="preserve">Leporacanthicus galaxias</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD62wlUv8p7Up8jfR0-RMJWa/IMAGENS-PEIXES/Leporinus%20affinis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD62wlUv8p7Up8jfR0-RMJWa/IMAGENS-PEIXES/Leporinus%20affinis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piau-flamengo</t>
@@ -851,7 +852,7 @@
     <t xml:space="preserve">Leporinus affinis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAcH2ZDtc1xtSkn1z4N7Bv5a/IMAGENS-PEIXES/Leporinus%20friderici.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAcH2ZDtc1xtSkn1z4N7Bv5a/IMAGENS-PEIXES/Leporinus%20friderici.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piau-comum</t>
@@ -863,7 +864,7 @@
     <t xml:space="preserve">1.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADQLMxB8c4nG68-KZ5slotda/IMAGENS-PEIXES/Lycengraulis%20batesi.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADQLMxB8c4nG68-KZ5slotda/IMAGENS-PEIXES/Lycengraulis%20batesi.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Sardinha-de-gato, Manjuba</t>
@@ -875,7 +876,7 @@
     <t xml:space="preserve">Engraulidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKO5i_wq6CdG2vx6XYiChXa/IMAGENS-PEIXES/Megaleporinus%20trifasciatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKO5i_wq6CdG2vx6XYiChXa/IMAGENS-PEIXES/Megaleporinus%20trifasciatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piau-cabeça-gorda</t>
@@ -887,7 +888,7 @@
     <t xml:space="preserve">2.2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB65wsfEZ78mPPTgy82sTIaa/IMAGENS-PEIXES/Megalonema%20platycephalum.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB65wsfEZ78mPPTgy82sTIaa/IMAGENS-PEIXES/Megalonema%20platycephalum.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Mandí-prata</t>
@@ -896,7 +897,7 @@
     <t xml:space="preserve">Megalonema platycephalum</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAFB12YoMHltIrCKz95J0N6a/IMAGENS-PEIXES/Mesonauta%20festivus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAFB12YoMHltIrCKz95J0N6a/IMAGENS-PEIXES/Mesonauta%20festivus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Acará-festivo</t>
@@ -905,7 +906,7 @@
     <t xml:space="preserve">Mesonauta festivus</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACol5cuO4afZV7RYqwKX2jsa/IMAGENS-PEIXES/Moenkhausia%20dichroura.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACol5cuO4afZV7RYqwKX2jsa/IMAGENS-PEIXES/Moenkhausia%20dichroura.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Lambarí-rabo-preto-e-branco</t>
@@ -929,7 +930,7 @@
     <t xml:space="preserve">Moenkhausia oligolepis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADgaJuypIzxVdydZpjI2jtGa/IMAGENS-PEIXES/Mylesinus%20paucisquamatus.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADgaJuypIzxVdydZpjI2jtGa/IMAGENS-PEIXES/Mylesinus%20paucisquamatus.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Peixes redondos</t>
@@ -953,7 +954,7 @@
     <t xml:space="preserve">Myleus setiger</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABwMrOzi4QxAQa8BICg3RqVa/IMAGENS-PEIXES/Myloplus%20schomburgkii.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABwMrOzi4QxAQa8BICg3RqVa/IMAGENS-PEIXES/Myloplus%20schomburgkii.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Pacú-ferrado</t>
@@ -986,7 +987,7 @@
     <t xml:space="preserve">4.3</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbBD0hys6_5gabZAipchOZa/IMAGENS-PEIXES/Osteoglossum%20bicirrhosum.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbBD0hys6_5gabZAipchOZa/IMAGENS-PEIXES/Osteoglossum%20bicirrhosum.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Aruanã</t>
@@ -1004,7 +1005,7 @@
     <t xml:space="preserve">Oxydoras niger</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAboGhsclsxzwgQ4Xfv6V21a/IMAGENS-PEIXES/Pachypops%20fourcroi.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAboGhsclsxzwgQ4Xfv6V21a/IMAGENS-PEIXES/Pachypops%20fourcroi.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Corvinas</t>
@@ -1019,7 +1020,7 @@
     <t xml:space="preserve">Scianidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAz9zpQHO1XZs3Ue-dzt3aGa/IMAGENS-PEIXES/Paratrygon%20aiereba.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAz9zpQHO1XZs3Ue-dzt3aGa/IMAGENS-PEIXES/Paratrygon%20aiereba.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Arraias</t>
@@ -1040,7 +1041,7 @@
     <t xml:space="preserve">Endêmica da Amazônia.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAczBg7hoaaSyVKjtZtcKpma/IMAGENS-PEIXES/Pellona%20castelnaeana.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAczBg7hoaaSyVKjtZtcKpma/IMAGENS-PEIXES/Pellona%20castelnaeana.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Apapá, Sardinhão, Pescada-amarela</t>
@@ -1055,7 +1056,7 @@
     <t xml:space="preserve">7.1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0QdXEjfuSPWyQeSoNq8EMa/IMAGENS-PEIXES/Pelona%20flavipinnis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0QdXEjfuSPWyQeSoNq8EMa/IMAGENS-PEIXES/Pelona%20flavipinnis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Pescada-branca</t>
@@ -1064,7 +1065,7 @@
     <t xml:space="preserve">Pellona flavipinnis</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB2ima_yFRZjCU42YqGXrpYa/IMAGENS-PEIXES/Phractocephalus%20hemioliopterus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB2ima_yFRZjCU42YqGXrpYa/IMAGENS-PEIXES/Phractocephalus%20hemioliopterus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Pirarara</t>
@@ -1076,7 +1077,7 @@
     <t xml:space="preserve">44.2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC5hVnqUSCqy6Bbzm2dvCA7a/IMAGENS-PEIXES/Piaractus%20brachypomus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC5hVnqUSCqy6Bbzm2dvCA7a/IMAGENS-PEIXES/Piaractus%20brachypomus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Caranha, Pirapitinga</t>
@@ -1097,7 +1098,7 @@
     <t xml:space="preserve">Heptapteridae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABA_0DUjbptm_Y8-dWAKweYa/IMAGENS-PEIXES/Pimelodella%20gracilis.jpg?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABA_0DUjbptm_Y8-dWAKweYa/IMAGENS-PEIXES/Pimelodella%20gracilis.jpg?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Chorão-de-faixa</t>
@@ -1115,7 +1116,7 @@
     <t xml:space="preserve">Canais de grandes rios.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACv-LWdkjxZsmwMea2Eys__a/IMAGENS-PEIXES/Pimelodus%20blochii.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACv-LWdkjxZsmwMea2Eys__a/IMAGENS-PEIXES/Pimelodus%20blochii.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Mandí-amarelo, Mandí-cabeça-de-ferro</t>
@@ -1124,7 +1125,7 @@
     <t xml:space="preserve">Pimelodus blochii</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACY0k_FbKogxn3ftpT7YRl0a/IMAGENS-PEIXES/Pimelodus%20ornatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACY0k_FbKogxn3ftpT7YRl0a/IMAGENS-PEIXES/Pimelodus%20ornatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Mandí-guarú</t>
@@ -1133,7 +1134,7 @@
     <t xml:space="preserve">Pimelodus ornatus</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABRojeNV1nQfqy6OzqHXeQ6a/IMAGENS-PEIXES/Pinirampus%20pirinampu.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABRojeNV1nQfqy6OzqHXeQ6a/IMAGENS-PEIXES/Pinirampus%20pirinampu.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Barbado</t>
@@ -1145,7 +1146,7 @@
     <t xml:space="preserve">7.7</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADNkXb7GwwzyU0WI_ni5Mqaa/IMAGENS-PEIXES/Plagioscion%20squamosissimus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADNkXb7GwwzyU0WI_ni5Mqaa/IMAGENS-PEIXES/Plagioscion%20squamosissimus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Corvina</t>
@@ -1157,7 +1158,7 @@
     <t xml:space="preserve">4.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADGvFRM-iIO9acEevnuNroca/IMAGENS-PEIXES/Platydoras%20costatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADGvFRM-iIO9acEevnuNroca/IMAGENS-PEIXES/Platydoras%20costatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Bacu-rebeca, Cascudo-rebeca, Cascudo listrado</t>
@@ -1181,7 +1182,7 @@
     <t xml:space="preserve">10.2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADspctFW-A_QNbE0nUldNeFa/IMAGENS-PEIXES/Potamorrhapis%20guianensis.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADspctFW-A_QNbE0nUldNeFa/IMAGENS-PEIXES/Potamorrhapis%20guianensis.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Bicuda-agulha</t>
@@ -1223,7 +1224,7 @@
     <t xml:space="preserve">14.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABZsUb_VECf65xXyriajtmXa/IMAGENS-PEIXES/Prochilodus%20nigricans.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABZsUb_VECf65xXyriajtmXa/IMAGENS-PEIXES/Prochilodus%20nigricans.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Papa-terra</t>
@@ -1235,7 +1236,7 @@
     <t xml:space="preserve">Prochilodontidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA3SRIAa6wQcCXALkJrxvnfa/IMAGENS-PEIXES/Psectrogaster%20amazonica.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA3SRIAa6wQcCXALkJrxvnfa/IMAGENS-PEIXES/Psectrogaster%20amazonica.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Branquinha-cascuda</t>
@@ -1247,7 +1248,7 @@
     <t xml:space="preserve">0.2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACwwSBlnzM1v2ekxEI-FaLra/IMAGENS-PEIXES/Pseudoplatystoma%20fasciatum.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACwwSBlnzM1v2ekxEI-FaLra/IMAGENS-PEIXES/Pseudoplatystoma%20fasciatum.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Surubim, Cachara, Pintado</t>
@@ -1268,7 +1269,7 @@
     <t xml:space="preserve">6.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACaiPp9S0feRUmCdDA_A7Zaa/IMAGENS-PEIXES/Pterygoplichthys%20joselimaianus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACaiPp9S0feRUmCdDA_A7Zaa/IMAGENS-PEIXES/Pterygoplichthys%20joselimaianus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Cascudos grandes</t>
@@ -1283,7 +1284,7 @@
     <t xml:space="preserve">39.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABPZ1bQhiMhAJZs1YT0boMZa/IMAGENS-PEIXES/Pygocentrus%20nattereri.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABPZ1bQhiMhAJZs1YT0boMZa/IMAGENS-PEIXES/Pygocentrus%20nattereri.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piranha-vermelha</t>
@@ -1295,7 +1296,7 @@
     <t xml:space="preserve">3.9</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADLn_WDDyK6XoRR5WjZIksxa/IMAGENS-PEIXES/Raphiodon%20vulpinus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADLn_WDDyK6XoRR5WjZIksxa/IMAGENS-PEIXES/Raphiodon%20vulpinus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Cachorra-facão</t>
@@ -1307,7 +1308,7 @@
     <t xml:space="preserve">2.1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRGuurdw1cxSE-f2xT6B6Ba/IMAGENS-PEIXES/Rhamdia%20quelen.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRGuurdw1cxSE-f2xT6B6Ba/IMAGENS-PEIXES/Rhamdia%20quelen.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Jundiá, Bagre, Lobó</t>
@@ -1331,7 +1332,7 @@
     <t xml:space="preserve">1.1</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7PhtmbRbGoVHbqFCGziu5a/IMAGENS-PEIXES/Schizodon%20vittatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7PhtmbRbGoVHbqFCGziu5a/IMAGENS-PEIXES/Schizodon%20vittatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Schizodon vittatus</t>
@@ -1346,7 +1347,7 @@
     <t xml:space="preserve">2.6</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADbdgzn0LLaaqLU8CtMS_nka/IMAGENS-PEIXES/Serrasalmus%20eigenmanni.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADbdgzn0LLaaqLU8CtMS_nka/IMAGENS-PEIXES/Serrasalmus%20eigenmanni.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piranha</t>
@@ -1355,7 +1356,7 @@
     <t xml:space="preserve">Serrasalmus eigenmanni</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD16Sofr2Ywi_8VYMLZakqKa/IMAGENS-PEIXES/Serrasalmus%20rhombeus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD16Sofr2Ywi_8VYMLZakqKa/IMAGENS-PEIXES/Serrasalmus%20rhombeus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Piranha-preta</t>
@@ -1367,7 +1368,7 @@
     <t xml:space="preserve">41.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7_U-UcEFS-B3LXey8f1jDa/IMAGENS-PEIXES/Sorubim%20lima.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7_U-UcEFS-B3LXey8f1jDa/IMAGENS-PEIXES/Sorubim%20lima.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Bico-de-pato, Jurupensém</t>
@@ -1379,7 +1380,7 @@
     <t xml:space="preserve">54.2</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA8oKMC9kuMAu1r7EbAUWr-a/IMAGENS-PEIXES/Sorubimichthys%20planiceps.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA8oKMC9kuMAu1r7EbAUWr-a/IMAGENS-PEIXES/Sorubimichthys%20planiceps.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Surubim-chicote, Bargada</t>
@@ -1403,7 +1404,7 @@
     <t xml:space="preserve">Synbranchidae</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAClMTqEFS4cN3ZYUG6_pqbTa/IMAGENS-PEIXES/Tetragonopterus%20argenteus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAClMTqEFS4cN3ZYUG6_pqbTa/IMAGENS-PEIXES/Tetragonopterus%20argenteus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Pataquinha</t>
@@ -1412,7 +1413,7 @@
     <t xml:space="preserve">Tetragonopterus argenteus</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABFCXn00hlsWSOmMWfF4Kaea/IMAGENS-PEIXES/Trachelyopterus%20galeatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABFCXn00hlsWSOmMWfF4Kaea/IMAGENS-PEIXES/Trachelyopterus%20galeatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Cangatí, Cachorro-do-padre</t>
@@ -1421,7 +1422,7 @@
     <t xml:space="preserve">Trachelyopterus galeatus</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA6WfuKsiegVhKjnd6Pqs_Ja/IMAGENS-PEIXES/Triportheus%20albus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA6WfuKsiegVhKjnd6Pqs_Ja/IMAGENS-PEIXES/Triportheus%20albus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Sardinhas</t>
@@ -1436,7 +1437,7 @@
     <t xml:space="preserve">25.7</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABuSkYGBB2lWirYWccINtpqa/IMAGENS-PEIXES/Triportheus%20trifurcatus.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABuSkYGBB2lWirYWccINtpqa/IMAGENS-PEIXES/Triportheus%20trifurcatus.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Sardinha-papuda</t>
@@ -1448,7 +1449,7 @@
     <t xml:space="preserve">16.5</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACCG9643Nm047hX03iiH1Sya/IMAGENS-PEIXES/Zungaro%20zungaro.JPG?raw=1</t>
+    <t xml:space="preserve">https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACCG9643Nm047hX03iiH1Sya/IMAGENS-PEIXES/Zungaro%20zungaro.JPG?dl=0</t>
   </si>
   <si>
     <t xml:space="preserve">Jaú</t>
@@ -1569,29 +1570,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:S118"/>
+  <dimension ref="A1:X118"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="T1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W9" activeCellId="0" sqref="W9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P103" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="T113" activeCellId="0" sqref="T113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="0" width="106.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="21.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="14.71"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1643,6 +1643,9 @@
       <c r="S1" s="0" t="s">
         <v>15</v>
       </c>
+      <c r="X1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
@@ -1684,6 +1687,9 @@
       <c r="S2" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="X2" s="0" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
@@ -1726,6 +1732,9 @@
         <v>23</v>
       </c>
       <c r="S3" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="X3" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1772,6 +1781,9 @@
       <c r="S4" s="0" t="s">
         <v>37</v>
       </c>
+      <c r="X4" s="0" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -1857,6 +1869,9 @@
       <c r="S6" s="0" t="s">
         <v>46</v>
       </c>
+      <c r="X6" s="0" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
@@ -1898,6 +1913,9 @@
       <c r="S7" s="0" t="s">
         <v>56</v>
       </c>
+      <c r="X7" s="0" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
@@ -1937,6 +1955,9 @@
         <v>23</v>
       </c>
       <c r="S8" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="X8" s="0" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1977,6 +1998,9 @@
       <c r="S9" s="0" t="s">
         <v>69</v>
       </c>
+      <c r="X9" s="0" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
@@ -2021,6 +2045,9 @@
       <c r="S10" s="0" t="s">
         <v>74</v>
       </c>
+      <c r="X10" s="0" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
@@ -2065,6 +2092,9 @@
       <c r="S11" s="0" t="s">
         <v>82</v>
       </c>
+      <c r="X11" s="0" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -2186,6 +2216,9 @@
         <v>23</v>
       </c>
       <c r="S14" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="X14" s="0" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2229,6 +2262,9 @@
       <c r="S15" s="0" t="s">
         <v>100</v>
       </c>
+      <c r="X15" s="0" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
@@ -2270,6 +2306,9 @@
       <c r="S16" s="0" t="s">
         <v>109</v>
       </c>
+      <c r="X16" s="0" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
@@ -2314,6 +2353,9 @@
       <c r="S17" s="0" t="s">
         <v>112</v>
       </c>
+      <c r="X17" s="0" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
@@ -2358,6 +2400,9 @@
       <c r="S18" s="0" t="s">
         <v>117</v>
       </c>
+      <c r="X18" s="0" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
@@ -2397,6 +2442,9 @@
         <v>23</v>
       </c>
       <c r="S19" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="X19" s="0" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2443,6 +2491,9 @@
       <c r="S20" s="0" t="s">
         <v>124</v>
       </c>
+      <c r="X20" s="0" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
@@ -2487,6 +2538,9 @@
       <c r="S21" s="0" t="s">
         <v>129</v>
       </c>
+      <c r="X21" s="0" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -2528,6 +2582,9 @@
       <c r="S22" s="0" t="s">
         <v>134</v>
       </c>
+      <c r="X22" s="0" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
@@ -2569,6 +2626,9 @@
       <c r="S23" s="0" t="s">
         <v>136</v>
       </c>
+      <c r="X23" s="0" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -2610,6 +2670,9 @@
       <c r="S24" s="0" t="s">
         <v>140</v>
       </c>
+      <c r="X24" s="0" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
@@ -2651,6 +2714,9 @@
       <c r="S25" s="0" t="s">
         <v>143</v>
       </c>
+      <c r="X25" s="0" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
@@ -2687,6 +2753,9 @@
         <v>23</v>
       </c>
       <c r="S26" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="X26" s="0" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2809,6 +2878,9 @@
       <c r="S29" s="0" t="s">
         <v>159</v>
       </c>
+      <c r="X29" s="0" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
@@ -2853,6 +2925,9 @@
       <c r="S30" s="0" t="s">
         <v>165</v>
       </c>
+      <c r="X30" s="0" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
@@ -2897,6 +2972,9 @@
       <c r="S31" s="0" t="s">
         <v>171</v>
       </c>
+      <c r="X31" s="0" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -2941,6 +3019,9 @@
       <c r="S32" s="0" t="s">
         <v>175</v>
       </c>
+      <c r="X32" s="0" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
@@ -2983,6 +3064,9 @@
         <v>23</v>
       </c>
       <c r="S33" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="X33" s="0" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3105,6 +3189,9 @@
       <c r="S36" s="0" t="s">
         <v>189</v>
       </c>
+      <c r="X36" s="0" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
@@ -3143,6 +3230,9 @@
       <c r="S37" s="0" t="s">
         <v>192</v>
       </c>
+      <c r="X37" s="0" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
@@ -3220,6 +3310,9 @@
         <v>23</v>
       </c>
       <c r="S39" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="X39" s="0" t="s">
         <v>202</v>
       </c>
     </row>
@@ -3266,6 +3359,9 @@
       <c r="S40" s="0" t="s">
         <v>207</v>
       </c>
+      <c r="X40" s="0" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
@@ -3307,6 +3403,9 @@
       <c r="S41" s="0" t="s">
         <v>211</v>
       </c>
+      <c r="X41" s="0" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
@@ -3346,6 +3445,9 @@
         <v>23</v>
       </c>
       <c r="S42" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="X42" s="0" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3392,6 +3494,9 @@
       <c r="S43" s="0" t="s">
         <v>218</v>
       </c>
+      <c r="X43" s="0" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
@@ -3433,6 +3538,9 @@
       <c r="S44" s="0" t="s">
         <v>223</v>
       </c>
+      <c r="X44" s="0" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
@@ -3477,6 +3585,9 @@
       <c r="S45" s="0" t="s">
         <v>228</v>
       </c>
+      <c r="X45" s="0" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
@@ -3521,6 +3632,9 @@
       <c r="S46" s="0" t="s">
         <v>231</v>
       </c>
+      <c r="X46" s="0" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
@@ -3559,6 +3673,9 @@
       <c r="S47" s="0" t="s">
         <v>234</v>
       </c>
+      <c r="X47" s="0" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
@@ -3601,6 +3718,9 @@
         <v>23</v>
       </c>
       <c r="S48" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="X48" s="0" t="s">
         <v>237</v>
       </c>
     </row>
@@ -3647,6 +3767,9 @@
       <c r="S49" s="0" t="s">
         <v>241</v>
       </c>
+      <c r="X49" s="0" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
@@ -3764,6 +3887,9 @@
       <c r="S52" s="0" t="s">
         <v>252</v>
       </c>
+      <c r="X52" s="0" t="s">
+        <v>252</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
@@ -3805,6 +3931,9 @@
       <c r="S53" s="0" t="s">
         <v>255</v>
       </c>
+      <c r="X53" s="0" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
@@ -3888,6 +4017,9 @@
         <v>23</v>
       </c>
       <c r="S55" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="X55" s="0" t="s">
         <v>261</v>
       </c>
     </row>
@@ -3934,6 +4066,9 @@
       <c r="S56" s="0" t="s">
         <v>267</v>
       </c>
+      <c r="X56" s="0" t="s">
+        <v>267</v>
+      </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
@@ -4010,6 +4145,9 @@
       <c r="S58" s="0" t="s">
         <v>272</v>
       </c>
+      <c r="X58" s="0" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
@@ -4051,6 +4189,9 @@
       <c r="S59" s="0" t="s">
         <v>275</v>
       </c>
+      <c r="X59" s="0" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
@@ -4095,6 +4236,9 @@
       <c r="S60" s="0" t="s">
         <v>279</v>
       </c>
+      <c r="X60" s="0" t="s">
+        <v>279</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
@@ -4136,6 +4280,9 @@
       <c r="S61" s="0" t="s">
         <v>283</v>
       </c>
+      <c r="X61" s="0" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
@@ -4178,6 +4325,9 @@
         <v>23</v>
       </c>
       <c r="S62" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="X62" s="0" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4221,6 +4371,9 @@
       <c r="S63" s="0" t="s">
         <v>290</v>
       </c>
+      <c r="X63" s="0" t="s">
+        <v>290</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
@@ -4262,6 +4415,9 @@
       <c r="S64" s="0" t="s">
         <v>293</v>
       </c>
+      <c r="X64" s="0" t="s">
+        <v>293</v>
+      </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
@@ -4379,6 +4535,9 @@
       <c r="S67" s="0" t="s">
         <v>301</v>
       </c>
+      <c r="X67" s="0" t="s">
+        <v>301</v>
+      </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
@@ -4458,6 +4617,9 @@
       <c r="S69" s="0" t="s">
         <v>309</v>
       </c>
+      <c r="X69" s="0" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
@@ -4614,6 +4776,9 @@
         <v>36</v>
       </c>
       <c r="S73" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="X73" s="0" t="s">
         <v>320</v>
       </c>
     </row>
@@ -4701,6 +4866,9 @@
       <c r="S75" s="0" t="s">
         <v>326</v>
       </c>
+      <c r="X75" s="0" t="s">
+        <v>326</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
@@ -4728,6 +4896,9 @@
         <v>25</v>
       </c>
       <c r="S76" s="0" t="s">
+        <v>331</v>
+      </c>
+      <c r="X76" s="0" t="s">
         <v>331</v>
       </c>
     </row>
@@ -4774,6 +4945,9 @@
       <c r="S77" s="0" t="s">
         <v>338</v>
       </c>
+      <c r="X77" s="0" t="s">
+        <v>338</v>
+      </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
@@ -4818,6 +4992,9 @@
       <c r="S78" s="0" t="s">
         <v>343</v>
       </c>
+      <c r="X78" s="0" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
@@ -4860,6 +5037,9 @@
         <v>23</v>
       </c>
       <c r="S79" s="0" t="s">
+        <v>346</v>
+      </c>
+      <c r="X79" s="0" t="s">
         <v>346</v>
       </c>
     </row>
@@ -4906,6 +5086,9 @@
       <c r="S80" s="0" t="s">
         <v>350</v>
       </c>
+      <c r="X80" s="0" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
@@ -4988,6 +5171,9 @@
       <c r="S82" s="0" t="s">
         <v>357</v>
       </c>
+      <c r="X82" s="0" t="s">
+        <v>357</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
@@ -5067,6 +5253,9 @@
       <c r="S84" s="0" t="s">
         <v>363</v>
       </c>
+      <c r="X84" s="0" t="s">
+        <v>363</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
@@ -5108,6 +5297,9 @@
       <c r="S85" s="0" t="s">
         <v>366</v>
       </c>
+      <c r="X85" s="0" t="s">
+        <v>366</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
@@ -5152,6 +5344,9 @@
       <c r="S86" s="0" t="s">
         <v>369</v>
       </c>
+      <c r="X86" s="0" t="s">
+        <v>369</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
@@ -5196,6 +5391,9 @@
       <c r="S87" s="0" t="s">
         <v>373</v>
       </c>
+      <c r="X87" s="0" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
@@ -5238,6 +5436,9 @@
         <v>23</v>
       </c>
       <c r="S88" s="0" t="s">
+        <v>377</v>
+      </c>
+      <c r="X88" s="0" t="s">
         <v>377</v>
       </c>
     </row>
@@ -5281,6 +5482,9 @@
       <c r="S89" s="0" t="s">
         <v>377</v>
       </c>
+      <c r="X89" s="0" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
@@ -5360,6 +5564,9 @@
       <c r="S91" s="0" t="s">
         <v>385</v>
       </c>
+      <c r="X91" s="0" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
@@ -5518,6 +5725,9 @@
       <c r="S95" s="0" t="s">
         <v>399</v>
       </c>
+      <c r="X95" s="0" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
@@ -5562,6 +5772,9 @@
       <c r="S96" s="0" t="s">
         <v>403</v>
       </c>
+      <c r="X96" s="0" t="s">
+        <v>403</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
@@ -5604,6 +5817,9 @@
         <v>23</v>
       </c>
       <c r="S97" s="0" t="s">
+        <v>407</v>
+      </c>
+      <c r="X97" s="0" t="s">
         <v>407</v>
       </c>
     </row>
@@ -5691,6 +5907,9 @@
       <c r="S99" s="0" t="s">
         <v>414</v>
       </c>
+      <c r="X99" s="0" t="s">
+        <v>414</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
@@ -5732,6 +5951,9 @@
       <c r="S100" s="0" t="s">
         <v>419</v>
       </c>
+      <c r="X100" s="0" t="s">
+        <v>419</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
@@ -5776,6 +5998,9 @@
       <c r="S101" s="0" t="s">
         <v>423</v>
       </c>
+      <c r="X101" s="0" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
@@ -5818,6 +6043,9 @@
         <v>23</v>
       </c>
       <c r="S102" s="0" t="s">
+        <v>427</v>
+      </c>
+      <c r="X102" s="0" t="s">
         <v>427</v>
       </c>
     </row>
@@ -5905,6 +6133,9 @@
       <c r="S104" s="0" t="s">
         <v>435</v>
       </c>
+      <c r="X104" s="0" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
@@ -5987,6 +6218,9 @@
       <c r="S106" s="0" t="s">
         <v>440</v>
       </c>
+      <c r="X106" s="0" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
@@ -6031,6 +6265,9 @@
       <c r="S107" s="0" t="s">
         <v>443</v>
       </c>
+      <c r="X107" s="0" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
@@ -6073,6 +6310,9 @@
         <v>23</v>
       </c>
       <c r="S108" s="0" t="s">
+        <v>447</v>
+      </c>
+      <c r="X108" s="0" t="s">
         <v>447</v>
       </c>
     </row>
@@ -6119,6 +6359,9 @@
       <c r="S109" s="0" t="s">
         <v>451</v>
       </c>
+      <c r="X109" s="0" t="s">
+        <v>451</v>
+      </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
@@ -6236,6 +6479,9 @@
       <c r="S112" s="0" t="s">
         <v>459</v>
       </c>
+      <c r="X112" s="0" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
@@ -6275,6 +6521,9 @@
         <v>23</v>
       </c>
       <c r="S113" s="0" t="s">
+        <v>462</v>
+      </c>
+      <c r="X113" s="0" t="s">
         <v>462</v>
       </c>
     </row>
@@ -6321,6 +6570,9 @@
       <c r="S114" s="0" t="s">
         <v>465</v>
       </c>
+      <c r="X114" s="0" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
@@ -6365,6 +6617,9 @@
       <c r="S115" s="0" t="s">
         <v>470</v>
       </c>
+      <c r="X115" s="0" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
@@ -6404,6 +6659,9 @@
         <v>23</v>
       </c>
       <c r="S116" s="0" t="s">
+        <v>474</v>
+      </c>
+      <c r="X116" s="0" t="s">
         <v>474</v>
       </c>
     </row>
@@ -6463,7 +6721,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1"/>
+  <autoFilter ref="A1:O1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6486,7 +6744,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
